--- a/PesquisarPreço/arquivos/resultados/rtx.xlsx
+++ b/PesquisarPreço/arquivos/resultados/rtx.xlsx
@@ -466,13 +466,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/placa-de-video-rtx-3060-m-6gb-gamer-novinha-80265104%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQgOUECNoT&amp;usg=AOvVaw2cBbDGzUhr5x428-2R51zY</t>
+          <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/placa-de-video-rtx-3060-m-6gb-gamer-novinha-80265104%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECNAT&amp;usg=AOvVaw0G0VtD0veOtYxuubGAdcEL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12gb-gddr6-91-1550149753/p/1550149753%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1550149753%26idLojista%3D11578%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQgOUECNsU&amp;usg=AOvVaw10_Oq7_tnOnaa50sR3DQu6</t>
+          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12gb-gddr6-91-1550149753/p/1550149753%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1550149753%26idLojista%3D11578%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECNwU&amp;usg=AOvVaw2HIqXRJbfBkCQcDX-HnPRV</t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-rtx-3060-12gb-gddr6/139005461/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485313%26country%3Dbr%26srsltid%3DASuE1wSMEQfB5zcpRY_J1V8sh09WHmeown6jTpZv4W-drHrbDDSeH-rPmaM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECIcS&amp;usg=AOvVaw1-zpbExIIWCpgdB82Uk4V6</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-rtx-3060-12gb-gddr6/139005461/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485313%26country%3Dbr%26srsltid%3DASuE1wTA2GtsqUP08DhRUIogHZuUd5qRWPYSDsoDbp4ymOFrd3IrrIX8DVA&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJcS&amp;usg=AOvVaw0oNQ9PijyDxxNDWLhAVN3X</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/470012/placa-de-video-gpu-nv-rtx3060-pny-8gb-g6-dual-fan-128b-verto-pny-vcg30608dfbpb1-%3Fsrsltid%3DASuE1wSjxwyltOHFV9O45UVFcXT1eEL3x4aDClM7VGgDgEDRrQkwo6i1Ikk&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECMsP&amp;usg=AOvVaw0c1GKkL_Z6s5lrJIfEHWrx</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/470012/placa-de-video-gpu-nv-rtx3060-pny-8gb-g6-dual-fan-128b-verto-pny-vcg30608dfbpb1-%3Fsrsltid%3DASuE1wTe8xdwDjkSqGf2sUUE4JwVyQHDbn0SenCzsvc-FCSWcxXT30dp5ME&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOwP&amp;usg=AOvVaw2gVyQPc79Ej3oJTjmVKDEH</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-oc-12gb-gddr6-192-bit-n30602-12d6x-11902120h%3Fsrsltid%3DASuE1wSbpPDaWRZeI4c1yD9jhojO9ew5gk8XRafyzuZaCw909f7XbgXNut8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECL4T&amp;usg=AOvVaw0dJMWEG-5PqMjUn5Dxkcqm</t>
+          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-oc-12gb-gddr6-192-bit-n30602-12d6x-11902120h%3Fsrsltid%3DASuE1wSU7dcttHN8NJWKf9oaZL_rV1N_KlLEFNr6sVc1CR0_XsP3Pv8oP1E&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMET&amp;usg=AOvVaw3HUZB51j05-ArElH0OSnW2</t>
         </is>
       </c>
     </row>
@@ -566,13 +566,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005300623666.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQgOUECMwS&amp;usg=AOvVaw3rVvh9dtA-uYE4V2rg9hH-</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005300623666.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECNwS&amp;usg=AOvVaw0pjW7VL_FquXxjoujNzGQ_</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.hdstore.com.br/processador-grafico-gainward-geforce-rtx-3060-ghost-gd6-12gb-gddr6-192bits-ne63060019k9-190au%3Fsrsltid%3DASuE1wR_HZ3s7czq-a6VCsxvddFBpWVxEvjNdxtjnC1xqORb0Uw8wkFu33c&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECJoP&amp;usg=AOvVaw06UD0gvoxYeZ0G6djlOMww</t>
+          <t>https://www.google.com/url?url=https://www.hdstore.com.br/processador-grafico-gainward-geforce-rtx-3060-ghost-gd6-12gb-gddr6-192bits-ne63060019k9-190au%3Fsrsltid%3DASuE1wQ1oE0xUy8vk3FBEKFLB-LXwZYZaVsQUhdzvESXgZ06NkyQNqRnBOE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJgP&amp;usg=AOvVaw0jAsB6nxOUGd5iuwx9zRM8</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24508/placa-de-video-superframe-nvidia-geforce-rtx-3060-12gb-gddr6-dlss-ray-tracing-rtx306012gd6p2ip3%3Fsrsltid%3DASuE1wRT5v747x9hCLNg_YYTcri8UpdUZjxClkMrI7NrMtL2sdhsfeRCiHw&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECLoP&amp;usg=AOvVaw0W10GZN1u_e-Rf2fEUN4Vc</t>
+          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24508/placa-de-video-superframe-nvidia-geforce-rtx-3060-12gb-gddr6-dlss-ray-tracing-rtx306012gd6p2ip3%3Fsrsltid%3DASuE1wRQUGpj-0w-AZh0rbZMR4mSDvZoruQ_l3lzHhlcJf5PiOf3FD_TpUQ&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMoP&amp;usg=AOvVaw3BjWqQd-Zg8LihSV_P6HKR</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24561/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-8gb-gddr6-dlss-ray-tracing-n30602-08d6x-11902130%3Fsrsltid%3DASuE1wR4RFNfgDb-d2LEII_xiGXg7lEfNJg1au0U4xQZsx84k0FoJ2nYwh4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECPgQ&amp;usg=AOvVaw3htQTkWyDayBNc4InakToC</t>
+          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24561/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-8gb-gddr6-dlss-ray-tracing-n30602-08d6x-11902130%3Fsrsltid%3DASuE1wSCFXy3zjX8YH_Pxk_2qbMVm08rUNdpAhlNGGTWQR0lJf14r5bwpT0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIgR&amp;usg=AOvVaw3T05oo2Ps1TLbbfBNema1L</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.brasilgamescuritiba.com.br/produto/placa-de-video-rtx-3060-8gb-ddr6-gigabyte-gaming%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECNwS&amp;usg=AOvVaw33IjyLe3q9pmz5uhe2FPTx</t>
+          <t>https://www.google.com/url?url=https://www.brasilgamescuritiba.com.br/produto/placa-de-video-rtx-3060-8gb-ddr6-gigabyte-gaming%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOwS&amp;usg=AOvVaw0K3hQBKxhAC_BG8jQ7JwPq</t>
         </is>
       </c>
     </row>
@@ -686,13 +686,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004131910302.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECK0O&amp;usg=AOvVaw19eCeYdqv5C_uh_6BqTVKL</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004131910302.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECL0O&amp;usg=AOvVaw3eZjxpSOS6eeS1TjKKEkbL</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -706,17 +706,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004656933257.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQgOUECLoU&amp;usg=AOvVaw0wBUnzVijswqgwTtnSS_S8</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004656933257.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECJwV&amp;usg=AOvVaw2B8GE7RpGsHn3RT_3jF-T9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g</t>
+          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -726,17 +726,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1005057132&amp;channel=86&amp;index=2&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-oc-edition-asus-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g/p/fdgjh9e0de/in/note/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECPIO&amp;usg=AOvVaw2RpN5oWEXx8ieB5zsbNIMf</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss</t>
+          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-oc-edition-asus-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g/p/fdgjh9e0de/in/note/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECOIO&amp;usg=AOvVaw0SdatTBD3hpMgJwAMgFvn3</t>
+          <t>https://www.buscape.com.br/lead?oid=1005057132&amp;channel=86&amp;index=2&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.alligatorshop.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-lhr-gddr6-dlss-ray-tracing-gv-n3060vision-oc-12gd%3Fsrsltid%3DASuE1wTWe_LeynFRYoptBpoQD6VcxvFkJToaqEmPOTsATCzIwHtkG930TeI&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECPYO&amp;usg=AOvVaw28luCC8l4VueMkpZLCR83P</t>
+          <t>https://www.google.com/url?url=https://www.alligatorshop.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-lhr-gddr6-dlss-ray-tracing-gv-n3060vision-oc-12gd%3Fsrsltid%3DASuE1wT2vURYQb35Knlr7duKFUvlWLZPksVCO-5N5v9imYHhaWjUrPSsU7o&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIYP&amp;usg=AOvVaw11kx3uA_wgpH9nBMJxoLGn</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.itxgamer.com.br/placa-de-video-msi-geforce-rtx-3060-ti-ventus-x2-oc-8gb-gddr6x-256-bit-dlss-ray-tracing-912-v505-084&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECLQQ&amp;usg=AOvVaw1EH1f_5L9cTXfAcazIcmUS</t>
+          <t>https://www.google.com/url?url=https://www.itxgamer.com.br/placa-de-video-msi-geforce-rtx-3060-ti-ventus-x2-oc-8gb-gddr6x-256-bit-dlss-ray-tracing-912-v505-084&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMQQ&amp;usg=AOvVaw0wIzdkdXU8yhdOAcHBM5CL</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/PROCESSADOR-GRAFICO-MSI-GEFORCE912-V397-484-VENTUS/dp/B08WHJFYM8%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA2KZSP8E0ZF21S&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECJwN&amp;usg=AOvVaw0clfJHBSYQ440LrwlPF3pP</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/PROCESSADOR-GRAFICO-MSI-GEFORCE912-V397-484-VENTUS/dp/B08WHJFYM8%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA2KZSP8E0ZF21S&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKwN&amp;usg=AOvVaw1vMI1aUSNGBDzTNchCG03w</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-asus-dual-o12g-v2-nvidia-geforce-12gb-gddr6-lhr-dlss-ray-tracing-dual-rtx3060-o12g-v2/p/gbhddje5e2/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECL8N&amp;usg=AOvVaw0mvYunxC5YOIiuSPNB8N1I</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-asus-dual-o12g-v2-nvidia-geforce-12gb-gddr6-lhr-dlss-ray-tracing-dual-rtx3060-o12g-v2/p/gbhddje5e2/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECM8N&amp;usg=AOvVaw2-bRM2oeaD_htBgSzI-xXM</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.supremoinformatica.com.br/placa-de-video-nvidia-geforce-rtx-3060-12gb-ddr6%3Fsrsltid%3DASuE1wQCqXp4dAW17Le1VUaS_Tv9YhM1_MxO8ji7bSVhQ_vWkuSQEn4IzCE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECIAQ&amp;usg=AOvVaw2Xg9JhgjFaj8yyvRVB-8uH</t>
+          <t>https://www.google.com/url?url=https://www.supremoinformatica.com.br/placa-de-video-nvidia-geforce-rtx-3060-12gb-ddr6%3Fsrsltid%3DASuE1wRxWhon4_gDtVFSnVl9m7MyuWoOsw4ycJjoeyA3IXZOStVbtSj7iks&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJAQ&amp;usg=AOvVaw0jE2q0WvNZU0_niYmwPXJ_</t>
         </is>
       </c>
     </row>
@@ -886,13 +886,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3060-ne63060t19k9-190au-oc-edition-12gb/p/MLB17438073%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECMUQ&amp;usg=AOvVaw2qI8oBa94NUPtAVByz_prw</t>
+          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3060-ne63060t19k9-190au-oc-edition-12gb/p/MLB17438073%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECNUQ&amp;usg=AOvVaw0Th388PEhdey7yUjlb-9iM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971B5B1L&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECKsU&amp;usg=AOvVaw3gVUX-tD6-8P5p4A4lBD_6</t>
+          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971B5B1L&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLsU&amp;usg=AOvVaw3t1WDLIoUbI1bPWwAqQRbj</t>
         </is>
       </c>
     </row>
@@ -926,13 +926,13 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.foxgamerinfo.com.br/product-page/placa-de-v%25C3%25ADdeo-geforce-rtx-3060-12gb-gddr6%3Futm_source%3Dgoogle%2526utm_medium%253Dwix_google_channel%2526utm_campaign%253Dfreelistings%26utm_source%3Dgoogle%26utm_medium%3Dwix_google_feed%26utm_campaign%3Dfreelistings&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQgOUECPoT&amp;usg=AOvVaw3OsWKkG4cOy8m9HY-f5PTi</t>
+          <t>https://www.google.com/url?url=https://www.foxgamerinfo.com.br/product-page/placa-de-v%25C3%25ADdeo-geforce-rtx-3060-12gb-gddr6%3Futm_source%3Dgoogle%2526utm_medium%253Dwix_google_channel%2526utm_campaign%253Dfreelistings%26utm_source%3Dgoogle%26utm_medium%3Dwix_google_feed%26utm_campaign%3Dfreelistings&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECP0T&amp;usg=AOvVaw3US_IIvTBXgZBSMvUoTGZb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971BG25M&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECOoT&amp;usg=AOvVaw2qq-19Zbl8S4ipkqca1leF</t>
+          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971BG25M&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECI0U&amp;usg=AOvVaw0m1EACpT-ZgMxJqtvczH7p</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/gigabyte-placa-grafica-rtx-3060-eagle-oc-12gb-gddr6/138575817/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15015511%26country%3Dbr%26srsltid%3DASuE1wTU7UGO2B_cqoT0AIYcUXjVSTZcCAIRqoZJOY7hHZlLmWeVbAa5QPc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECIkR&amp;usg=AOvVaw3cdwo0nclROjLx4LlRqH2w</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/gigabyte-placa-grafica-rtx-3060-eagle-oc-12gb-gddr6/138575817/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15015511%26country%3Dbr%26srsltid%3DASuE1wSzgSmWOBqE039Lc4Tgwy96t-FAuubj6Z5kQY9KvQlb-ZdETw7weZs&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJkR&amp;usg=AOvVaw2AbA_2pUZggghyVCYrwHKj</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/417543/placa-de-video-rtx-3060-verto-pny-nvidia-geforce-8-gb-gddr6-dlss-ray-tracing-vcg30608dfbpb1%3Fsrsltid%3DASuE1wRlJ7qlexlJ-M97fw_lv1vKwwxnYYV6f6WqoChSlNkDKVnl2mSLE_g&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECO8P&amp;usg=AOvVaw1J2e8OWCF0qHexfTGqKRat</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/417543/placa-de-video-rtx-3060-verto-pny-nvidia-geforce-8-gb-gddr6-dlss-ray-tracing-vcg30608dfbpb1%3Fsrsltid%3DASuE1wQHKbnDKp3ydJDQ6n1ixrqYwCjS7VVrqFEnjXPFSWg8zHbrV8jbqi4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECNsP&amp;usg=AOvVaw3j7NpynuN1g52o54_SKDc5</t>
         </is>
       </c>
     </row>
@@ -1026,13 +1026,13 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/398083/placa-de-video-rtx-3060-white-oc-edition-asus-nvidia-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g-white%3Fsrsltid%3DASuE1wSkfIkWLxlFJimTHVSE9UDLnN70_kF5MIQ8EE7OyiYQLXE93xIgHRs&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECNAR&amp;usg=AOvVaw0BNylKwa_u16yBuYw5LlSl</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/398083/placa-de-video-rtx-3060-white-oc-edition-asus-nvidia-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g-white%3Fsrsltid%3DASuE1wT5NejJGtSbnkjfmgMopMesvpHUtTBxgq6EI7BtGremi5_qN9XXGC0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOAR&amp;usg=AOvVaw1d8Th2YeHeY7HJkPlK7cSK</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-gaming-rtx-3060-ti-oc-8gb-gddr6/139562173/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D18575422%26country%3Dbr%26srsltid%3DASuE1wRxBuskKOO90dYNrB9wJoSoBC8AEHjfwN5rOs3ugT9FAnmVzmVC0Uc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECOwU&amp;usg=AOvVaw1eXd4RFBtLify-v46QJff8</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-gaming-rtx-3060-ti-oc-8gb-gddr6/139562173/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D18575422%26country%3Dbr%26srsltid%3DASuE1wRGAGg9fzZbKobWSi1PZfLs_5lHD0SYo4Tp_Laq7J_htGlJl9-csDg&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECI0V&amp;usg=AOvVaw0ezAHSiWRTxpxWzYWOy-VM</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-pny-nvidia-verto-rtx-3060-12gb-gddr6-192-bits/p/MLB20555255%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECIoO&amp;usg=AOvVaw1BSMvq-7wXbdYOW1jy48ir</t>
+          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-pny-nvidia-verto-rtx-3060-12gb-gddr6-192-bits/p/MLB20555255%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJoO&amp;usg=AOvVaw1pCbBLNaSGwp8_IiBZKpdk</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.compulink.com.br/informatica/placa-de-video-12gb-rtx3060-ddr6-192bit-hdmi3xdisplayport-rtx-3060-pegasus-gainward%3Fparceiro%3D2506%26srsltid%3DASuE1wRVz95CQEg7Jr4pFm0rcZkyTj3UpBdrZQSpzclBpDZOUZr_Dh2e-LQ&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECKIQ&amp;usg=AOvVaw177PgPsnj5KTXnW4DjNc5s</t>
+          <t>https://www.google.com/url?url=https://www.compulink.com.br/informatica/placa-de-video-12gb-rtx3060-ddr6-192bit-hdmi3xdisplayport-rtx-3060-pegasus-gainward%3Fparceiro%3D2506%26srsltid%3DASuE1wSy9TTxeoZovbPmGi4kJS-Ie7vz4DTMF3Go2_skJ-xHhAxvkyQYSXY&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLIQ&amp;usg=AOvVaw2ziCfpbfJ9aS6o2EYkmb9K</t>
         </is>
       </c>
     </row>
@@ -1126,13 +1126,13 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/384635/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3060t8ldfbpb1%3Fsrsltid%3DASuE1wRqvGBbsXSUOslLzITkKLqIp7qJGcaxNPdvCJ8H347ZvEN7Avxzw9E&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECNkQ&amp;usg=AOvVaw1lmluyX-cegI9mCwV34H8E</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/384635/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3060t8ldfbpb1%3Fsrsltid%3DASuE1wRpg0ccJg7JQS_0v-Iz_bW1pEncOZF0yYesZ839ZEfDCRkd_F9W41s&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOkQ&amp;usg=AOvVaw15xCawfHLGpUwHw0kvQAuO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1146,87 +1146,87 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-phoenix-rtx-3060-12gb-gddr6/139005437/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485289%26country%3Dbr%26srsltid%3DASuE1wRLQcL4S-AGrLs05F2WSXabgHBb2PnMryNQvJvJK1UFt_bE4GdoOYM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECMsU&amp;usg=AOvVaw0JfsBToHCNLRIdLGg5IYZY</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-phoenix-rtx-3060-12gb-gddr6/139005437/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485289%26country%3Dbr%26srsltid%3DASuE1wSdyQHeEcWbuPj1a7CyCCd_bb1cFRrJ8Yb7HpUoGn3MFe7x3vu3EpE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECO0U&amp;usg=AOvVaw11CR9firKo2pf0ZVxpQsuP</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>placa de video pny geforce rtx 3060 ti verto dual fan, 8gb, gddr6x, 256-bit ...</t>
+          <t>asus placa gráfica dual rtx 3060 ti 8gb gddr6x prateado</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R$ 2.299,99</t>
+          <t>R$ 2.296,99</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-pny-geforce-rtx-3060-ti-verto-pny-nvidia-8-gb-gddr6x-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1/p/gd59g66akh/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECO0S&amp;usg=AOvVaw1fHO_mKwTTpdg72BmcKnZu</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-dual-rtx-3060-ti-8gb-gddr6x/139859563/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D19720319%26country%3Dbr%26srsltid%3DASuE1wRf06Y7LP9hZk4b63gvlxgqVNFUk33ubHlSTYMQlI80cz_jsWA_UtM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECO4T&amp;usg=AOvVaw2AS9JBwVjDdqPmbaFtbwuq</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>placa de vídeo asus geforce rtx 3060 tuf gaming 12gb gddr6</t>
+          <t>placa de video pny geforce rtx 3060 ti verto dual fan, 8gb, gddr6x, 256-bit ...</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>R$ 2.306,85</t>
+          <t>R$ 2.299,99</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005266299917.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECL8R&amp;usg=AOvVaw2zE2EfMW-ydSipQvXxicdU</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-pny-geforce-rtx-3060-ti-verto-pny-nvidia-8-gb-gddr6x-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1/p/gd59g66akh/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECP0S&amp;usg=AOvVaw3f7XWhs19TWeLy2axdmtLP</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>placa de vídeo gigabyte geforce rtx 3060 windforce oc 12gb</t>
+          <t>placa de vídeo asus geforce rtx 3060 tuf gaming 12gb gddr6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>R$ 2.324,07</t>
+          <t>R$ 2.306,85</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.dhcp.com.br/placa-de-video-gigabyte-geforce-rtx-3060-windforce-oc-12g-gv-n3060wf2oc-12gd-12gb-gddr6-192-bits-pci-express-4-0.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECOQN&amp;usg=AOvVaw3_ojzerzBJ2xcWlBS5OFCN</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005266299917.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECM8R&amp;usg=AOvVaw312HIuvdQhcU5qbG6vrlEp</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>placa de video rtx 3060 gaming oc gigabyte geforce, 12 gb gddr6, lhr, ray tracing - gv-n3060gaming oc-12gd (rev 2.0)</t>
+          <t>placa de vídeo gigabyte geforce rtx 3060 windforce oc 12gb</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>R$ 2.329,99</t>
+          <t>R$ 2.324,07</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=453950717&amp;channel=86&amp;index=4&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.dhcp.com.br/placa-de-video-gigabyte-geforce-rtx-3060-windforce-oc-12g-gv-n3060wf2oc-12gd-12gb-gddr6-192-bits-pci-express-4-0.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECPQN&amp;usg=AOvVaw04ORfjmG0MwMKJB-WdkaVN</t>
         </is>
       </c>
     </row>
@@ -1246,147 +1246,147 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/180539/placa-de-video-rtx-3060-gaming-oc-gigabyte-geforce-12-gb-gddr6-lhr-ray-tracing-gv-n3060gaming-oc-12gd-rev-2-0-%3Fsrsltid%3DASuE1wQuMHzoPU7N_EFJg6QipIrv31kjDZLt9EpspXrJyTEq9hB0FY_af4k&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECPgN&amp;usg=AOvVaw1EGoW5LqQtKw_e-xOpdXzi</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/180539/placa-de-video-rtx-3060-gaming-oc-gigabyte-geforce-12-gb-gddr6-lhr-ray-tracing-gv-n3060gaming-oc-12gd-rev-2-0-%3Fsrsltid%3DASuE1wQUd76UMNmTYIRBOSlRS0sVq6yWPZUeYgyt2baVICJdI0FKdM4jtI8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIgO&amp;usg=AOvVaw0zHj8MQHszgARz9xS0uLW3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>placa de vídeo gainward ne63060019p1-190ae nvidia rtx 3060 pegasus 8gb 128bits</t>
+          <t>placa de video rtx 3060 gaming oc gigabyte geforce, 12 gb gddr6, lhr, ray tracing - gv-n3060gaming oc-12gd (rev 2.0)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>R$ 2.333,68</t>
+          <t>R$ 2.329,99</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.loja.thinforma.com.br/produto/placa-de-video-rtx-3060-8gb-pegasus-gd6-128bits-gainward-ne63060019p1-190ae.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECJsR&amp;usg=AOvVaw2tgUu9cgV8f3CXdPvvvCMi</t>
+          <t>https://www.buscape.com.br/lead?oid=453950717&amp;channel=86&amp;index=4&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>placa de video igame rtx 3060 ultra w oc 8gb-v colorful</t>
+          <t>placa de vídeo gainward ne63060019p1-190ae nvidia rtx 3060 pegasus 8gb 128bits</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>R$ 2.339,10</t>
+          <t>R$ 2.333,68</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-igame-rtx-3060-ultra-w-oc-8gb-v-colorful-1555757317/p/1555757317%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1555757317%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECIgP&amp;usg=AOvVaw24sqqxzQNNSoxja3VC4VB_</t>
+          <t>https://www.google.com/url?url=https://www.loja.thinforma.com.br/produto/placa-de-video-rtx-3060-8gb-pegasus-gd6-128bits-gainward-ne63060019p1-190ae.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKsR&amp;usg=AOvVaw31vF3T0w-xhD_qnxLomYGN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>placa de vídeo msi geforce rtx 3060 ventus 3x 12gb oc lhr</t>
+          <t>placa de video igame rtx 3060 ultra w oc 8gb-v colorful</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R$ 2.347,99</t>
+          <t>R$ 2.339,10</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/msi-placa-grafica-nvidia-geforce-rtx-3060-ventus-3x-oc-12gb-gddr6/138781717/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15853456%26country%3Dbr%26srsltid%3DASuE1wQ83keXseAF-5eFMljgFmISDfcU0-OYUlPLTcArL3aOD5nUPhXmyWQ&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECKwP&amp;usg=AOvVaw1dZsjD5fGx-3mKoIRHkNZ2</t>
+          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-igame-rtx-3060-ultra-w-oc-8gb-v-colorful-1555757317/p/1555757317%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1555757317%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKoP&amp;usg=AOvVaw2tQXiX2i9QuaCVxP0ciAjY</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>placa de video nvidia geforce rtx 3060 ti 8 gb gddr6 256 bits gainward ne6306t019p2-190ab v1</t>
+          <t>placa de vídeo msi geforce rtx 3060 ventus 3x 12gb oc lhr</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>R$ 2.359,00</t>
+          <t>R$ 2.347,99</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-rtx-3060-ti-8-gb-gddr6-256-bits-gainward-ne6306t019p2-190ab-v1?_lc=88&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/msi-placa-grafica-nvidia-geforce-rtx-3060-ventus-3x-oc-12gb-gddr6/138781717/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15853456%26country%3Dbr%26srsltid%3DASuE1wSIEsCljeneO7cIYFq4LlPxARhFMSITeI7SIuIy3ZoLhjlrBEP55Ds&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLwP&amp;usg=AOvVaw3Gkg-jOuqNO41Z-Fg4bJ14</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>placa de video pny nvidia geforce rtx 3060, 12 gb gddr6, dlss, ray tracing - vcg306012dfbpb1</t>
+          <t>placa de video nvidia geforce rtx 3060 ti 8 gb gddr6 256 bits gainward ne6306t019p2-190ab v1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>R$ 2.359,99</t>
+          <t>R$ 2.359,00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=920801032&amp;channel=86&amp;index=1&amp;searchterm=rtx%203060</t>
+          <t>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-rtx-3060-ti-8-gb-gddr6-256-bits-gainward-ne6306t019p2-190ab-v1?_lc=88&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>placa de vídeo nvidia verto dual fan rtx 3060 ti 8gb gddr6x vcg3061t8ldfbpb1 pny</t>
+          <t>placa de video pny nvidia geforce rtx 3060, 12 gb gddr6, dlss, ray tracing - vcg306012dfbpb1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R$ 2.384,10</t>
+          <t>R$ 2.359,99</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.startecinfo.com.br/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wRwpenLSCPtZgDcY7A_HOniI62wyVhW6m2MUnMxcwW6kB59kJcCA_g&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECPUR&amp;usg=AOvVaw1ky_6j2Xx6VOL9TI6MIJjp</t>
+          <t>https://www.buscape.com.br/lead?oid=920801032&amp;channel=86&amp;index=1&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>placa de video gainward rtx 3060 ghost gd6 12gb gddr6 192bits</t>
+          <t>placa de vídeo nvidia verto dual fan rtx 3060 ti 8gb gddr6x vcg3061t8ldfbpb1 pny</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R$ 2.392,50</t>
+          <t>R$ 2.384,10</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tecnogamers.com.br/produtos/placa-de-video-gainward-rtx-3060-ghost-gd6-12gb-gddr6-192bits/%3Fsrsltid%3DASuE1wSjBgYT6HKYjBFb1_xV0tq6eOTo_dqeUQD3UmaZ0mpFQmmxsQ2izCQ&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQgOUECIkV&amp;usg=AOvVaw2itR_Xm9XDGpXOqmbKEGyw</t>
+          <t>https://www.google.com/url?url=https://www.startecinfo.com.br/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wRu5XdnW24JdJEnvajaWekp15vcOLgq_Yoxj_kYn82z69IzKc2jG2Q&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIUS&amp;usg=AOvVaw3kS0NYHUgapgEAKAWO0GKN</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.novaliderinformatica.com.br/produto/placa-de-video-gainward-nvidia-geforce-rtx-3060-ti-ghost-8gb-gddr6-ne6306t019p2-190ab&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECP8S&amp;usg=AOvVaw30CIfvLI8vNRJxdNzh8gj7</t>
+          <t>https://www.google.com/url?url=https://www.novaliderinformatica.com.br/produto/placa-de-video-gainward-nvidia-geforce-rtx-3060-ti-ghost-8gb-gddr6-ne6306t019p2-190ab&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECI8T&amp;usg=AOvVaw1yycw74SMe9ilN8mWCwMEq</t>
         </is>
       </c>
     </row>
@@ -1426,13 +1426,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.eliteplayer.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-12gb-gddr6-rgb-fusion-ray-tracing-metal-back-plate-gv-n3060%3Fsrsltid%3DASuE1wRWCayNAtN_TNxnKG5KyLkZ-_5nJ6KIJPkTMflzpbOANgXYnh2Ab9k&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECJkS&amp;usg=AOvVaw2UYzvHDFau5Ub-BGshHmZr</t>
+          <t>https://www.google.com/url?url=https://www.eliteplayer.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-12gb-gddr6-rgb-fusion-ray-tracing-metal-back-plate-gv-n3060%3Fsrsltid%3DASuE1wRjPWFyiDKKisipa2XE3mQZpAOiRus9maSZbjrmbSvnyikpYgCw3ug&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKkS&amp;usg=AOvVaw0B4ZC8598sJoUj__n4Zs8b</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-nvidia-geforce-rtx-3060ti-ghost-gainward-8gb-gddr6-256bits-ne6306t019p2-190ab-1545508151/p/1545508151%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1545508151%26idLojista%3D207611%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQgOUECPsU&amp;usg=AOvVaw0c0lX51rjBzgSqqStqQAMP</t>
+          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-nvidia-geforce-rtx-3060ti-ghost-gainward-8gb-gddr6-256bits-ne6306t019p2-190ab-1545508151/p/1545508151%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1545508151%26idLojista%3D207611%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECPwU&amp;usg=AOvVaw1X4SCv4dJwrl474I3-pGup</t>
         </is>
       </c>
     </row>
@@ -1466,13 +1466,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-colorful-igame-geforce-rtx-3060-nb-duo-lhr-v-12gb-gddr6-192bit-1535388927/p/1535388927%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1535388927%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECNEO&amp;usg=AOvVaw0tMtgZYW7RxvMOs6Yfnicl</t>
+          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-colorful-igame-geforce-rtx-3060-nb-duo-lhr-v-12gb-gddr6-192bit-1535388927/p/1535388927%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1535388927%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOEO&amp;usg=AOvVaw0jDKOHY7c1UXgZCOsZcYt_</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECN0P&amp;usg=AOvVaw01GXhG2_kmEGW4jSZCl7uq</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECP4P&amp;usg=AOvVaw3x7PU6s6XLDZre-d7lgLd8</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.2eletro.com.br/placa-de-video-pcwinmax-nvidia-geforce-rtx-3060ti-8gb-256bits-gddr6-directx-12/p%3Fidsku%3D3526%26utm_source%3Dgoogleshopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECJAQ&amp;usg=AOvVaw2TGGxJGmbU0KSPICmvP2oX</t>
+          <t>https://www.google.com/url?url=https://www.2eletro.com.br/placa-de-video-pcwinmax-nvidia-geforce-rtx-3060ti-8gb-256bits-gddr6-directx-12/p%3Fidsku%3D3526%26utm_source%3Dgoogleshopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKAQ&amp;usg=AOvVaw0ghi70coWYUaQLNFazlUzJ</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-ti-eagle-oc-lhr-8gb-gddr6-256-bit-gv-n306teagle-oc-8gd-rev-2-0%3Fsrsltid%3DASuE1wTYxmgbwai_FKRLRdjLTx7dUYTKIxpRHaVKaYJVboqVaFl2Odcq31Y&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECLwS&amp;usg=AOvVaw0cdyaI2QQAeVF-Km05gVb_</t>
+          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-ti-eagle-oc-lhr-8gb-gddr6-256-bit-gv-n306teagle-oc-8gd-rev-2-0%3Fsrsltid%3DASuE1wQA7FJVSX3F5sgfXZe8hWKM1cLgBLhuRn_OT4-ZQpptO6AgHs87bek&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMwS&amp;usg=AOvVaw1DpwI-X7fCgxs3JtxXs6js</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/275252/placa-de-video-rtx-3060-3x-12g-oc-msi-nvidia-geforce-ventus-12gb-gddr6-dlss-ray-tracing-3060-ventus-3x-12g-oc%3Fsrsltid%3DASuE1wQ43CxN6NUVxqyfKTzQsObix3cDR2jDl5Bt7QbN2FUz4VXWeLmSMN8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwi1tvf96paAAxVBrZUCHdi4DPsQguUECKsS&amp;usg=AOvVaw1CCxUnjNASZKeALGOzf680</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/275252/placa-de-video-rtx-3060-3x-12g-oc-msi-nvidia-geforce-ventus-12gb-gddr6-dlss-ray-tracing-3060-ventus-3x-12g-oc%3Fsrsltid%3DASuE1wSCgYyMEy4kb7pvwZOvTkBUrXxRXimxp-m0RpPkcI3Xjk2uj0ajt-4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLsS&amp;usg=AOvVaw1eq4_jaH1yT6-ICnqt9DFu</t>
         </is>
       </c>
     </row>

--- a/PesquisarPreço/arquivos/resultados/rtx.xlsx
+++ b/PesquisarPreço/arquivos/resultados/rtx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/placa-de-video-rtx-3060-m-6gb-gamer-novinha-80265104%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECNAT&amp;usg=AOvVaw0G0VtD0veOtYxuubGAdcEL</t>
+          <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/placa-de-video-rtx-3060-m-6gb-gamer-novinha-80265104%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECPgT&amp;usg=AOvVaw2KSJwOTLOs7H6rtW0qfHW0</t>
         </is>
       </c>
     </row>
@@ -486,13 +486,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12gb-gddr6-91-1550149753/p/1550149753%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1550149753%26idLojista%3D11578%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECNwU&amp;usg=AOvVaw2HIqXRJbfBkCQcDX-HnPRV</t>
+          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12gb-gddr6-91-1550149753/p/1550149753%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1550149753%26idLojista%3D11578%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECPsU&amp;usg=AOvVaw1w-L7LfWYD62jUJnRe0LHb</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,13 +506,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-rtx-3060-12gb-gddr6/139005461/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485313%26country%3Dbr%26srsltid%3DASuE1wTA2GtsqUP08DhRUIogHZuUd5qRWPYSDsoDbp4ymOFrd3IrrIX8DVA&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJcS&amp;usg=AOvVaw0oNQ9PijyDxxNDWLhAVN3X</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-rtx-3060-12gb-gddr6/139005461/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485313%26country%3Dbr%26srsltid%3DASuE1wRA-pKilesP0KOnhHHDqr3UlppmeCZqbRV5_7LrFWsEeSkLpXJZnck&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECO4R&amp;usg=AOvVaw1SQ_pRQ85JkIp23y0NIVIW</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -526,13 +526,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/470012/placa-de-video-gpu-nv-rtx3060-pny-8gb-g6-dual-fan-128b-verto-pny-vcg30608dfbpb1-%3Fsrsltid%3DASuE1wTe8xdwDjkSqGf2sUUE4JwVyQHDbn0SenCzsvc-FCSWcxXT30dp5ME&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOwP&amp;usg=AOvVaw2gVyQPc79Ej3oJTjmVKDEH</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/470012/placa-de-video-gpu-nv-rtx3060-pny-8gb-g6-dual-fan-128b-verto-pny-vcg30608dfbpb1-%3Fsrsltid%3DASuE1wQ3jHX5y86ilnhy-QwyrRk2_IBjGhTC4iRIcXOL6I0198utJgX8Nq8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIoQ&amp;usg=AOvVaw0WrBW0E4clqRBzhgE8M7u4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,13 +546,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-oc-12gb-gddr6-192-bit-n30602-12d6x-11902120h%3Fsrsltid%3DASuE1wSU7dcttHN8NJWKf9oaZL_rV1N_KlLEFNr6sVc1CR0_XsP3Pv8oP1E&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMET&amp;usg=AOvVaw3HUZB51j05-ArElH0OSnW2</t>
+          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-oc-12gb-gddr6-192-bit-n30602-12d6x-11902120h%3Fsrsltid%3DASuE1wQ09vE8sMUJKzwM1BblnHvjjLNnRNBUaVVa9mAhJ4EKQICpPNS91BA&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKkU&amp;usg=AOvVaw1bLoKh5kYR8GIfKN5pQwBe</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005300623666.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECNwS&amp;usg=AOvVaw0pjW7VL_FquXxjoujNzGQ_</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005300623666.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECJAS&amp;usg=AOvVaw3jtuuhPjUGPBNHurDtuEZL</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.hdstore.com.br/processador-grafico-gainward-geforce-rtx-3060-ghost-gd6-12gb-gddr6-192bits-ne63060019k9-190au%3Fsrsltid%3DASuE1wQ1oE0xUy8vk3FBEKFLB-LXwZYZaVsQUhdzvESXgZ06NkyQNqRnBOE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJgP&amp;usg=AOvVaw0jAsB6nxOUGd5iuwx9zRM8</t>
+          <t>https://www.google.com/url?url=https://www.hdstore.com.br/processador-grafico-gainward-geforce-rtx-3060-ghost-gd6-12gb-gddr6-192bits-ne63060019k9-190au%3Fsrsltid%3DASuE1wS4RoIU0BRfttUCRjb4azbFjSWzzsi5jy-HhOG2ADvBTnKmQEQhm3o&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKQP&amp;usg=AOvVaw2pO6QlhG_CQE7icDHoI_Bc</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24508/placa-de-video-superframe-nvidia-geforce-rtx-3060-12gb-gddr6-dlss-ray-tracing-rtx306012gd6p2ip3%3Fsrsltid%3DASuE1wRQUGpj-0w-AZh0rbZMR4mSDvZoruQ_l3lzHhlcJf5PiOf3FD_TpUQ&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMoP&amp;usg=AOvVaw3BjWqQd-Zg8LihSV_P6HKR</t>
+          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24508/placa-de-video-superframe-nvidia-geforce-rtx-3060-12gb-gddr6-dlss-ray-tracing-rtx306012gd6p2ip3%3Fsrsltid%3DASuE1wQKgeIZ4LKlgL-oLFiW0uRAN5Ur3UlgTTRI-YH7OBJTFSYXQNPCoyc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNYP&amp;usg=AOvVaw0M3zPm5eNxDgiijIc6n91n</t>
         </is>
       </c>
     </row>
@@ -646,13 +646,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24561/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-8gb-gddr6-dlss-ray-tracing-n30602-08d6x-11902130%3Fsrsltid%3DASuE1wSCFXy3zjX8YH_Pxk_2qbMVm08rUNdpAhlNGGTWQR0lJf14r5bwpT0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIgR&amp;usg=AOvVaw3T05oo2Ps1TLbbfBNema1L</t>
+          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24561/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-8gb-gddr6-dlss-ray-tracing-n30602-08d6x-11902130%3Fsrsltid%3DASuE1wSq43o1vLnJvRv8adGz5_nuwfUaCzKrjUypz7nyclta00JXnUgcKu8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIYR&amp;usg=AOvVaw1IPqCPR81LIZrzbymZ5984</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.brasilgamescuritiba.com.br/produto/placa-de-video-rtx-3060-8gb-ddr6-gigabyte-gaming%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOwS&amp;usg=AOvVaw0K3hQBKxhAC_BG8jQ7JwPq</t>
+          <t>https://www.google.com/url?url=https://www.brasilgamescuritiba.com.br/produto/placa-de-video-rtx-3060-8gb-ddr6-gigabyte-gaming%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECPkS&amp;usg=AOvVaw2CxlknNuS7DJFCqAhU2Tf8</t>
         </is>
       </c>
     </row>
@@ -686,13 +686,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004131910302.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECL0O&amp;usg=AOvVaw3eZjxpSOS6eeS1TjKKEkbL</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004131910302.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECMgO&amp;usg=AOvVaw2w6lAzdGF4MAWrEg4Yu8in</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -706,13 +706,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004656933257.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECJwV&amp;usg=AOvVaw2B8GE7RpGsHn3RT_3jF-T9</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004656933257.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECKkV&amp;usg=AOvVaw1VMzCTuhlMSG7Zd-RzRTIQ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-oc-edition-asus-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g/p/fdgjh9e0de/in/note/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECPIO&amp;usg=AOvVaw2RpN5oWEXx8ieB5zsbNIMf</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-oc-edition-asus-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g/p/fdgjh9e0de/in/note/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECJIP&amp;usg=AOvVaw2_7k53zmuKj-RKQyqdVIfv</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -766,13 +766,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.alligatorshop.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-lhr-gddr6-dlss-ray-tracing-gv-n3060vision-oc-12gd%3Fsrsltid%3DASuE1wT2vURYQb35Knlr7duKFUvlWLZPksVCO-5N5v9imYHhaWjUrPSsU7o&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIYP&amp;usg=AOvVaw11kx3uA_wgpH9nBMJxoLGn</t>
+          <t>https://www.google.com/url?url=https://www.alligatorshop.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-lhr-gddr6-dlss-ray-tracing-gv-n3060vision-oc-12gd%3Fsrsltid%3DASuE1wT_3rVRK_vH2prOH6DpgL7daOe5c7svn6uc95xpTkplPilzvKaASJ8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIEP&amp;usg=AOvVaw1SMa9SAjK0KkJoRsbbvYE3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.itxgamer.com.br/placa-de-video-msi-geforce-rtx-3060-ti-ventus-x2-oc-8gb-gddr6x-256-bit-dlss-ray-tracing-912-v505-084&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMQQ&amp;usg=AOvVaw0wIzdkdXU8yhdOAcHBM5CL</t>
+          <t>https://www.google.com/url?url=https://www.itxgamer.com.br/placa-de-video-msi-geforce-rtx-3060-ti-ventus-x2-oc-8gb-gddr6x-256-bit-dlss-ray-tracing-912-v505-084&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECPgQ&amp;usg=AOvVaw16i5rcLeC47IR66ltubXLH</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/PROCESSADOR-GRAFICO-MSI-GEFORCE912-V397-484-VENTUS/dp/B08WHJFYM8%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA2KZSP8E0ZF21S&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKwN&amp;usg=AOvVaw1vMI1aUSNGBDzTNchCG03w</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/PROCESSADOR-GRAFICO-MSI-GEFORCE912-V397-484-VENTUS/dp/B08WHJFYM8%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA2KZSP8E0ZF21S&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLcN&amp;usg=AOvVaw0gBP89ooDBvLVw8WAt_jM2</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-asus-dual-o12g-v2-nvidia-geforce-12gb-gddr6-lhr-dlss-ray-tracing-dual-rtx3060-o12g-v2/p/gbhddje5e2/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECM8N&amp;usg=AOvVaw2-bRM2oeaD_htBgSzI-xXM</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-asus-dual-o12g-v2-nvidia-geforce-12gb-gddr6-lhr-dlss-ray-tracing-dual-rtx3060-o12g-v2/p/gbhddje5e2/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECO0N&amp;usg=AOvVaw2WDKQZ835iOlwOw7WP5R8m</t>
         </is>
       </c>
     </row>
@@ -866,117 +866,117 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.supremoinformatica.com.br/placa-de-video-nvidia-geforce-rtx-3060-12gb-ddr6%3Fsrsltid%3DASuE1wRxWhon4_gDtVFSnVl9m7MyuWoOsw4ycJjoeyA3IXZOStVbtSj7iks&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJAQ&amp;usg=AOvVaw0jE2q0WvNZU0_niYmwPXJ_</t>
+          <t>https://www.google.com/url?url=https://www.supremoinformatica.com.br/placa-de-video-nvidia-geforce-rtx-3060-12gb-ddr6%3Fsrsltid%3DASuE1wTewjd5o3kgp0d2pWEzW4QVlDY_xY3bqLW2ancI6BClHyFoJwOqJaE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECJwQ&amp;usg=AOvVaw0XpdDJ2_qku8LVHQJtraI0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>placa de vídeo gainward rtx 3060 ghost oc 12gb, gddr6</t>
+          <t>placa de vídeo nvidia rtx 3060 oc eagle 12gb gddr6 gigabyte</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R$ 2.110,00</t>
+          <t>R$ 2.125,00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-nvidia-gainward-ghost-geforce-rtx-30-series-rtx-3060-ne63060t19k9-190au-oc-edition-12gb/p/MLB17438073%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECNUQ&amp;usg=AOvVaw0Th388PEhdey7yUjlb-9iM</t>
+          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971B5B1L&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIkU&amp;usg=AOvVaw36ULAKeH41pGwUdQFET1io</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>placa de vídeo nvidia rtx 3060 oc eagle 12gb gddr6 gigabyte</t>
+          <t>placa de vídeo - geforce rtx 3060 12gb gddr6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R$ 2.125,00</t>
+          <t>R$ 2.190,00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971B5B1L&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLsU&amp;usg=AOvVaw3t1WDLIoUbI1bPWwAqQRbj</t>
+          <t>https://www.google.com/url?url=https://www.foxgamerinfo.com.br/product-page/placa-de-v%25C3%25ADdeo-geforce-rtx-3060-12gb-gddr6%3Futm_source%3Dgoogle%2526utm_medium%253Dwix_google_channel%2526utm_campaign%253Dfreelistings%26utm_source%3Dgoogle%26utm_medium%3Dwix_google_feed%26utm_campaign%3Dfreelistings&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECJgU&amp;usg=AOvVaw07rrcYooCpkCa8Bebd7A6_</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>placa de vídeo - geforce rtx 3060 12gb gddr6</t>
+          <t>gigabyte gv-n3060gaming oc-12gd nvidia geforce rtx 3060 12 gb gddr6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>R$ 2.190,00</t>
+          <t>R$ 2.195,00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.foxgamerinfo.com.br/product-page/placa-de-v%25C3%25ADdeo-geforce-rtx-3060-12gb-gddr6%3Futm_source%3Dgoogle%2526utm_medium%253Dwix_google_channel%2526utm_campaign%253Dfreelistings%26utm_source%3Dgoogle%26utm_medium%3Dwix_google_feed%26utm_campaign%3Dfreelistings&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECP0T&amp;usg=AOvVaw3US_IIvTBXgZBSMvUoTGZb</t>
+          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971BG25M&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNkU&amp;usg=AOvVaw0N_65SUbnbHeSN38vKlRo1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gigabyte gv-n3060gaming oc-12gd nvidia geforce rtx 3060 12 gb gddr6</t>
+          <t>placa de vídeo gigabyte geforce rtx 3060 eagle oc 12g</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>R$ 2.195,00</t>
+          <t>R$ 2.196,49</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971BG25M&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECI0U&amp;usg=AOvVaw0m1EACpT-ZgMxJqtvczH7p</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/gigabyte-placa-grafica-rtx-3060-eagle-oc-12gb-gddr6/138575817/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15015511%26country%3Dbr%26srsltid%3DASuE1wTMR4XiiXwbTZFQxpCYu91SfEj5BUfV93ESuwDHyUMOBRzSBfAYaD4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKcR&amp;usg=AOvVaw2tXPVi2xzOHmks7-aUwB1k</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>placa de vídeo gigabyte geforce rtx 3060 eagle oc 12g</t>
+          <t>placa de vídeo rtx 3060 white oc edition asus nvidia dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g-white</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R$ 2.196,49</t>
+          <t>R$ 2.199,99</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/gigabyte-placa-grafica-rtx-3060-eagle-oc-12gb-gddr6/138575817/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15015511%26country%3Dbr%26srsltid%3DASuE1wSzgSmWOBqE039Lc4Tgwy96t-FAuubj6Z5kQY9KvQlb-ZdETw7weZs&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJkR&amp;usg=AOvVaw2AbA_2pUZggghyVCYrwHKj</t>
+          <t>https://www.buscape.com.br/lead?oid=1005057131&amp;channel=86&amp;index=11&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 white oc edition asus nvidia dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g-white</t>
+          <t>placa de vídeo pny nvidia geforce rtx 3060 verto dual fan, 8gb, gddr6, dlss, ray ...</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -986,17 +986,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1005057131&amp;channel=86&amp;index=11&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/417543/placa-de-video-rtx-3060-verto-pny-nvidia-geforce-8-gb-gddr6-dlss-ray-tracing-vcg30608dfbpb1%3Fsrsltid%3DASuE1wSbVhkjlvVwmCmfnIf6oIXczcv_iAUdc2TJ2gG0mLWQruSq1UMZamM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOcP&amp;usg=AOvVaw2F5juCJZOuff3VaYDqdKgn</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>placa de vídeo pny nvidia geforce rtx 3060 verto dual fan, 8gb, gddr6, dlss, ray ...</t>
+          <t>placa de vídeo asus geforce rtx 3060, dual, oc edition, white, 8gb, gddr6, dlss ...</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1006,97 +1006,97 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/417543/placa-de-video-rtx-3060-verto-pny-nvidia-geforce-8-gb-gddr6-dlss-ray-tracing-vcg30608dfbpb1%3Fsrsltid%3DASuE1wQHKbnDKp3ydJDQ6n1ixrqYwCjS7VVrqFEnjXPFSWg8zHbrV8jbqi4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECNsP&amp;usg=AOvVaw3j7NpynuN1g52o54_SKDc5</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/398083/placa-de-video-rtx-3060-white-oc-edition-asus-nvidia-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g-white%3Fsrsltid%3DASuE1wSMDlDK4U4AnK6M4IbJnPEoptwg2iH4Gyz4kw-w44lxkOK4s8dNuMw&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNYS&amp;usg=AOvVaw3h5OrN1pK0BcGtO0Buh4-7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>placa de vídeo asus geforce rtx 3060, dual, oc edition, white, 8gb, gddr6, dlss ...</t>
+          <t>placa de vídeo nvidia geforce rtx 3060 verto 12gb gddr6 pny</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R$ 2.199,99</t>
+          <t>R$ 2.240,00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/398083/placa-de-video-rtx-3060-white-oc-edition-asus-nvidia-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g-white%3Fsrsltid%3DASuE1wT5NejJGtSbnkjfmgMopMesvpHUtTBxgq6EI7BtGremi5_qN9XXGC0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOAR&amp;usg=AOvVaw1d8Th2YeHeY7HJkPlK7cSK</t>
+          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-pny-nvidia-verto-rtx-3060-12gb-gddr6-192-bits/p/MLB20555255%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKUO&amp;usg=AOvVaw3KZaLJ6zdnSmGZ_mDYDyug</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>placa gráfica asus tuf-rtx3060ti-o8gd6x-gaming 8 gb gddr6x nvidia geforce rtx 3060 ti</t>
+          <t>placa de vídeo gainward rtx 3060 ghost oc 12gb, gddr6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>R$ 2.200,99</t>
+          <t>R$ 2.249,10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-gaming-rtx-3060-ti-oc-8gb-gddr6/139562173/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D18575422%26country%3Dbr%26srsltid%3DASuE1wRGAGg9fzZbKobWSi1PZfLs_5lHD0SYo4Tp_Laq7J_htGlJl9-csDg&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECI0V&amp;usg=AOvVaw0ezAHSiWRTxpxWzYWOy-VM</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/167781/placa-de-video-gainward-nvidia-geforce-rtx-3060-ghost-oc-12gb-gddr6-192-bits-ne63060t19k9-190au%3Fsrsltid%3DASuE1wTXhQVv9Z4QCPK-yyQwbW8-Fu2pTvY9p8yBnuSZtWmuKifXe1eLEBY&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNIQ&amp;usg=AOvVaw0tjNwHeyAO7GPjYTnC_1u5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>placa de vídeo nvidia geforce rtx 3060 verto 12gb gddr6 pny</t>
+          <t>placa de vídeo gainward geforce rtx 3060 12gb - pegasus</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R$ 2.240,00</t>
+          <t>R$ 2.257,50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-pny-nvidia-verto-rtx-3060-12gb-gddr6-192-bits/p/MLB20555255%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECJoO&amp;usg=AOvVaw1pCbBLNaSGwp8_IiBZKpdk</t>
+          <t>https://www.google.com/url?url=https://www.compulink.com.br/informatica/placa-de-video-12gb-rtx3060-ddr6-192bit-hdmi3xdisplayport-rtx-3060-pegasus-gainward%3Fparceiro%3D2506%26srsltid%3DASuE1wQLGXll5O0lbDh5FdAPmnG7BbcHNvkQa6jkJaF8hW_Rz4n_3oM4sTE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECL4Q&amp;usg=AOvVaw36FaI8HVK-u_3e8ZJvxHxW</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>placa de vídeo gainward geforce rtx 3060 12gb - pegasus</t>
+          <t>placa de video pny geforce rtx 3060 ti verto dual fan, 8gb, gddr6x, 256-bit ...</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R$ 2.257,50</t>
+          <t>R$ 2.259,00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.compulink.com.br/informatica/placa-de-video-12gb-rtx3060-ddr6-192bit-hdmi3xdisplayport-rtx-3060-pegasus-gainward%3Fparceiro%3D2506%26srsltid%3DASuE1wSy9TTxeoZovbPmGi4kJS-Ie7vz4DTMF3Go2_skJ-xHhAxvkyQYSXY&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLIQ&amp;usg=AOvVaw2ziCfpbfJ9aS6o2EYkmb9K</t>
+          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-pny-geforce-rtx-3060-ti-verto-dual-fan-8gb-gddr6x-256-bit-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wRLn_-OcDOSxxFday-SLFI8sNu-cJchQdg_QVbF8idZVncPjqt1L6Q&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOgS&amp;usg=AOvVaw0Y5GSEsoPSXSCif97jevie</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>placa de video rtx 3060 ti dual fan pny nvidia geforce, 8 gb gddr6, lhr, dlss, ray tracing - vcg3060t8ldfbpb1</t>
+          <t>placa de video pny nvidia geforce rtx 3060 ti dual fan, 8gb gddr6, lhr</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=942617381&amp;channel=86&amp;index=3&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/384635/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3060t8ldfbpb1%3Fsrsltid%3DASuE1wRhWXQagMDmywhG4x8O9kJB0PB3_EC9iwNwkOKzumNbN8jvVQnT2jk&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOYQ&amp;usg=AOvVaw2ToEaYFHPPFmm1dLNrzAAK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>placa de video pny nvidia geforce rtx 3060 ti dual fan, 8gb gddr6, lhr</t>
+          <t>placa de video rtx 3060 ti dual fan pny nvidia geforce, 8 gb gddr6, lhr, dlss, ray tracing - vcg3060t8ldfbpb1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/384635/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3060t8ldfbpb1%3Fsrsltid%3DASuE1wRpg0ccJg7JQS_0v-Iz_bW1pEncOZF0yYesZ839ZEfDCRkd_F9W41s&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOkQ&amp;usg=AOvVaw15xCawfHLGpUwHw0kvQAuO</t>
+          <t>https://www.buscape.com.br/lead?oid=942617381&amp;channel=86&amp;index=3&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
@@ -1146,13 +1146,13 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-phoenix-rtx-3060-12gb-gddr6/139005437/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485289%26country%3Dbr%26srsltid%3DASuE1wSdyQHeEcWbuPj1a7CyCCd_bb1cFRrJ8Yb7HpUoGn3MFe7x3vu3EpE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECO0U&amp;usg=AOvVaw11CR9firKo2pf0ZVxpQsuP</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-phoenix-rtx-3060-12gb-gddr6/139005437/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485289%26country%3Dbr%26srsltid%3DASuE1wRyMrtnej6-4q7VJMRds2iTYrI8cRlwgPIwvcJiLKoi6J7dhIOlzYU&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIwV&amp;usg=AOvVaw3gjKQLTPW4oamS1DvRjGgk</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1166,77 +1166,77 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-dual-rtx-3060-ti-8gb-gddr6x/139859563/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D19720319%26country%3Dbr%26srsltid%3DASuE1wRf06Y7LP9hZk4b63gvlxgqVNFUk33ubHlSTYMQlI80cz_jsWA_UtM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECO4T&amp;usg=AOvVaw2AS9JBwVjDdqPmbaFtbwuq</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-dual-rtx-3060-ti-8gb-gddr6x/139859563/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D19720319%26country%3Dbr%26srsltid%3DASuE1wQ92RqaFYJU9jJj16lxZ2EtaUikzHP9Bxjw0SHhp-5TV2ZtHsAuS3c&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOsU&amp;usg=AOvVaw2eu9y_p5QQpDXiS6tZ-qsr</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>placa de video pny geforce rtx 3060 ti verto dual fan, 8gb, gddr6x, 256-bit ...</t>
+          <t>placa de vídeo asus geforce rtx 3060 tuf gaming 12gb gddr6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>R$ 2.299,99</t>
+          <t>R$ 2.306,85</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-pny-geforce-rtx-3060-ti-verto-pny-nvidia-8-gb-gddr6x-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1/p/gd59g66akh/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECP0S&amp;usg=AOvVaw3f7XWhs19TWeLy2axdmtLP</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005266299917.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECN0R&amp;usg=AOvVaw0FCkQCD1GENJ79MRXLloDo</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>placa de vídeo asus geforce rtx 3060 tuf gaming 12gb gddr6</t>
+          <t>placa de vídeo gigabyte geforce rtx 3060 windforce oc 12gb</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>R$ 2.306,85</t>
+          <t>R$ 2.324,07</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005266299917.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECM8R&amp;usg=AOvVaw312HIuvdQhcU5qbG6vrlEp</t>
+          <t>https://www.google.com/url?url=https://www.dhcp.com.br/placa-de-video-gigabyte-geforce-rtx-3060-windforce-oc-12g-gv-n3060wf2oc-12gd-12gb-gddr6-192-bits-pci-express-4-0.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECP8N&amp;usg=AOvVaw2bhjz0GR7RslMP8lPWkA_W</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>placa de vídeo gigabyte geforce rtx 3060 windforce oc 12gb</t>
+          <t>placa de vídeo gigabyte geforce rtx 3060 gaming oc 12gb</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>R$ 2.324,07</t>
+          <t>R$ 2.329,99</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.dhcp.com.br/placa-de-video-gigabyte-geforce-rtx-3060-windforce-oc-12g-gv-n3060wf2oc-12gd-12gb-gddr6-192-bits-pci-express-4-0.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECPQN&amp;usg=AOvVaw04ORfjmG0MwMKJB-WdkaVN</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/180539/placa-de-video-rtx-3060-gaming-oc-gigabyte-geforce-12-gb-gddr6-lhr-ray-tracing-gv-n3060gaming-oc-12gd-rev-2-0-%3Fsrsltid%3DASuE1wTbkUgEDN9z2w59yLzPo_QNaho5hQyTgwAi-dJu4O1HNFtO_EAPDP4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECJMO&amp;usg=AOvVaw0QLdOTOeYLbvG9-M_Pe3ud</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>placa de vídeo gigabyte geforce rtx 3060 gaming oc 12gb</t>
+          <t>placa de video rtx 3060 gaming oc gigabyte geforce, 12 gb gddr6, lhr, ray tracing - gv-n3060gaming oc-12gd (rev 2.0)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1246,153 +1246,153 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/180539/placa-de-video-rtx-3060-gaming-oc-gigabyte-geforce-12-gb-gddr6-lhr-ray-tracing-gv-n3060gaming-oc-12gd-rev-2-0-%3Fsrsltid%3DASuE1wQUd76UMNmTYIRBOSlRS0sVq6yWPZUeYgyt2baVICJdI0FKdM4jtI8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIgO&amp;usg=AOvVaw0zHj8MQHszgARz9xS0uLW3</t>
+          <t>https://www.buscape.com.br/lead?oid=453950717&amp;channel=86&amp;index=4&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>placa de video rtx 3060 gaming oc gigabyte geforce, 12 gb gddr6, lhr, ray tracing - gv-n3060gaming oc-12gd (rev 2.0)</t>
+          <t>placa de vídeo gainward ne63060019p1-190ae nvidia rtx 3060 pegasus 8gb 128bits</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>R$ 2.329,99</t>
+          <t>R$ 2.333,68</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=453950717&amp;channel=86&amp;index=4&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.loja.thinforma.com.br/produto/placa-de-video-rtx-3060-8gb-pegasus-gd6-128bits-gainward-ne63060019p1-190ae.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLkR&amp;usg=AOvVaw0L8BlGgSAK-FWsSiO8-nOT</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>placa de vídeo gainward ne63060019p1-190ae nvidia rtx 3060 pegasus 8gb 128bits</t>
+          <t>placa de video igame rtx 3060 ultra w oc 8gb-v colorful</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>R$ 2.333,68</t>
+          <t>R$ 2.339,10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.loja.thinforma.com.br/produto/placa-de-video-rtx-3060-8gb-pegasus-gd6-128bits-gainward-ne63060019p1-190ae.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKsR&amp;usg=AOvVaw31vF3T0w-xhD_qnxLomYGN</t>
+          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-igame-rtx-3060-ultra-w-oc-8gb-v-colorful-1555757317/p/1555757317%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1555757317%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLYP&amp;usg=AOvVaw13yaPZ1gukIxgKO0fRHboC</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>placa de video igame rtx 3060 ultra w oc 8gb-v colorful</t>
+          <t>placa de vídeo msi geforce rtx 3060 ventus 3x 12gb oc lhr</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>R$ 2.339,10</t>
+          <t>R$ 2.347,99</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-igame-rtx-3060-ultra-w-oc-8gb-v-colorful-1555757317/p/1555757317%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1555757317%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKoP&amp;usg=AOvVaw2tQXiX2i9QuaCVxP0ciAjY</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/msi-placa-grafica-nvidia-geforce-rtx-3060-ventus-3x-oc-12gb-gddr6/138781717/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15853456%26country%3Dbr%26srsltid%3DASuE1wR7Et_bkclrLyvHan8mz5nuodLM7C17LwSPyivTZi0cea3KmipXtrM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECMgP&amp;usg=AOvVaw1u44R5vXjPEFPJq2gaGYCe</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>placa de vídeo msi geforce rtx 3060 ventus 3x 12gb oc lhr</t>
+          <t>placa de video nvidia geforce rtx 3060 ti 8 gb gddr6 256 bits gainward ne6306t019p2-190ab v1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>R$ 2.347,99</t>
+          <t>R$ 2.359,00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/msi-placa-grafica-nvidia-geforce-rtx-3060-ventus-3x-oc-12gb-gddr6/138781717/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15853456%26country%3Dbr%26srsltid%3DASuE1wSIEsCljeneO7cIYFq4LlPxARhFMSITeI7SIuIy3ZoLhjlrBEP55Ds&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLwP&amp;usg=AOvVaw3Gkg-jOuqNO41Z-Fg4bJ14</t>
+          <t>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-rtx-3060-ti-8-gb-gddr6-256-bits-gainward-ne6306t019p2-190ab-v1?_lc=88&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>placa de video nvidia geforce rtx 3060 ti 8 gb gddr6 256 bits gainward ne6306t019p2-190ab v1</t>
+          <t>placa de video pny nvidia geforce rtx 3060, 12 gb gddr6, dlss, ray tracing - vcg306012dfbpb1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>R$ 2.359,00</t>
+          <t>R$ 2.359,99</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-rtx-3060-ti-8-gb-gddr6-256-bits-gainward-ne6306t019p2-190ab-v1?_lc=88&amp;searchterm=rtx%203060</t>
+          <t>https://www.buscape.com.br/lead?oid=920801032&amp;channel=86&amp;index=1&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>placa de video pny nvidia geforce rtx 3060, 12 gb gddr6, dlss, ray tracing - vcg306012dfbpb1</t>
+          <t>placa de vídeo nvidia verto dual fan rtx 3060 ti 8gb gddr6x vcg3061t8ldfbpb1 pny</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>R$ 2.359,99</t>
+          <t>R$ 2.384,10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=920801032&amp;channel=86&amp;index=1&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.startecinfo.com.br/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wQaqJpUehYnztZl-m62t1AmXwEGjIkNE6biqHIG5srVyioyAebQnx0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLUS&amp;usg=AOvVaw2s_wiv9tAmkVhjsCota4eQ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>placa de vídeo nvidia verto dual fan rtx 3060 ti 8gb gddr6x vcg3061t8ldfbpb1 pny</t>
+          <t>placa de video gainward rtx 3060 ghost gd6 12gb gddr6 192bits</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R$ 2.384,10</t>
+          <t>R$ 2.392,50</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.startecinfo.com.br/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wRu5XdnW24JdJEnvajaWekp15vcOLgq_Yoxj_kYn82z69IzKc2jG2Q&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECIUS&amp;usg=AOvVaw3kS0NYHUgapgEAKAWO0GKN</t>
+          <t>https://www.google.com/url?url=https://tecnogamers.com.br/produtos/placa-de-video-gainward-rtx-3060-ghost-gd6-12gb-gddr6-192bits/%3Fsrsltid%3DASuE1wTRb7bdEvN5vZI7WJjTDpxht_ZsjHFppK_Q5wlS5TvA4grZl88GLFI&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECJoV&amp;usg=AOvVaw0mObuAR2yZZu78s1a1lvqf</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1406,13 +1406,13 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.novaliderinformatica.com.br/produto/placa-de-video-gainward-nvidia-geforce-rtx-3060-ti-ghost-8gb-gddr6-ne6306t019p2-190ab&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECI8T&amp;usg=AOvVaw1yycw74SMe9ilN8mWCwMEq</t>
+          <t>https://www.google.com/url?url=https://www.novaliderinformatica.com.br/produto/placa-de-video-gainward-nvidia-geforce-rtx-3060-ti-ghost-8gb-gddr6-ne6306t019p2-190ab&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKkT&amp;usg=AOvVaw1pspDJ-nORlyfJcleVu8KW</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1426,93 +1426,93 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.eliteplayer.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-12gb-gddr6-rgb-fusion-ray-tracing-metal-back-plate-gv-n3060%3Fsrsltid%3DASuE1wRjPWFyiDKKisipa2XE3mQZpAOiRus9maSZbjrmbSvnyikpYgCw3ug&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKkS&amp;usg=AOvVaw0B4ZC8598sJoUj__n4Zs8b</t>
+          <t>https://www.google.com/url?url=https://www.eliteplayer.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-12gb-gddr6-rgb-fusion-ray-tracing-metal-back-plate-gv-n3060%3Fsrsltid%3DASuE1wQnf1XXuBZOcIf2q6Fi6jWoVl4g-K5CD5IUY5kTbKRdP1JLn2m-ar4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLsT&amp;usg=AOvVaw0a8iPavWqIe7SsBAvc61q0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>placa de vídeo nvidia geforce rtx 3060ti ghost gainward 8gb gddr6 256bits ...</t>
+          <t>placa de video colorful igame geforce rtx 3060 nb duo lhr-v 12gb gddr6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>R$ 2.399,90</t>
+          <t>R$ 2.463,12</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-nvidia-geforce-rtx-3060ti-ghost-gainward-8gb-gddr6-256bits-ne6306t019p2-190ab-1545508151/p/1545508151%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1545508151%26idLojista%3D207611%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QgOUECPwU&amp;usg=AOvVaw1X4SCv4dJwrl474I3-pGup</t>
+          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-colorful-igame-geforce-rtx-3060-nb-duo-lhr-v-12gb-gddr6-192bit-1535388927/p/1535388927%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1535388927%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECO0O&amp;usg=AOvVaw0ZLMwt8BjILqXUDMY-tHfr</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>placa de video colorful igame geforce rtx 3060 nb duo lhr-v 12gb gddr6</t>
+          <t>placa de vídeo palit geforce rtx 3060 12gb - gddr6 dual ne63060019k9-190ad</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>R$ 2.463,12</t>
+          <t>R$ 2.487,56</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-colorful-igame-geforce-rtx-3060-nb-duo-lhr-v-12gb-gddr6-192bit-1535388927/p/1535388927%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1535388927%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECOEO&amp;usg=AOvVaw0jDKOHY7c1UXgZCOsZcYt_</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECPgP&amp;usg=AOvVaw384BJ3QbhnjQH0wSNR1wuJ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>placa de vídeo palit geforce rtx 3060 12gb - gddr6 dual ne63060019k9-190ad</t>
+          <t>placa de vídeo nvidia geforce rtx 3060ti 8gb 256bits gddr6 pcwinmax</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>R$ 2.487,56</t>
+          <t>R$ 2.499,00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECP4P&amp;usg=AOvVaw3x7PU6s6XLDZre-d7lgLd8</t>
+          <t>https://www.google.com/url?url=https://www.2eletro.com.br/placa-de-video-pcwinmax-nvidia-geforce-rtx-3060ti-8gb-256bits-gddr6-directx-12/p%3Fidsku%3D3526%26utm_source%3Dgoogleshopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKwQ&amp;usg=AOvVaw2e5JCCwjyFa1xZu0IcjffT</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>placa de vídeo nvidia geforce rtx 3060ti 8gb 256bits gddr6 pcwinmax</t>
+          <t>placa de vídeo nvidia msi geforce rtx 3060 ventus 3x 12g oc</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>R$ 2.499,00</t>
+          <t>R$ 2.499,99</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.2eletro.com.br/placa-de-video-pcwinmax-nvidia-geforce-rtx-3060ti-8gb-256bits-gddr6-directx-12/p%3Fidsku%3D3526%26utm_source%3Dgoogleshopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECKAQ&amp;usg=AOvVaw0ghi70coWYUaQLNFazlUzJ</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/275252/placa-de-video-rtx-3060-3x-12g-oc-msi-nvidia-geforce-ventus-12gb-gddr6-dlss-ray-tracing-3060-ventus-3x-12g-oc%3Fsrsltid%3DASuE1wRYfBnVH7BkGVojedj0Q8kTAzt59b1byIUqopEU0_h5Z4PLvdaYttM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIAS&amp;usg=AOvVaw07jtZ2Ynse61_ea2Ehp04H</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1526,27 +1526,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-ti-eagle-oc-lhr-8gb-gddr6-256-bit-gv-n306teagle-oc-8gd-rev-2-0%3Fsrsltid%3DASuE1wQA7FJVSX3F5sgfXZe8hWKM1cLgBLhuRn_OT4-ZQpptO6AgHs87bek&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECMwS&amp;usg=AOvVaw1DpwI-X7fCgxs3JtxXs6js</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>placa de vídeo nvidia msi geforce rtx 3060 ventus 3x 12g oc</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>R$ 2.499,99</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/275252/placa-de-video-rtx-3060-3x-12g-oc-msi-nvidia-geforce-ventus-12gb-gddr6-dlss-ray-tracing-3060-ventus-3x-12g-oc%3Fsrsltid%3DASuE1wSCgYyMEy4kb7pvwZOvTkBUrXxRXimxp-m0RpPkcI3Xjk2uj0ajt-4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwiynd-G9paAAxViqpUCHSx3Dc0QguUECLsS&amp;usg=AOvVaw1eq4_jaH1yT6-ICnqt9DFu</t>
+          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-ti-eagle-oc-lhr-8gb-gddr6-256-bit-gv-n306teagle-oc-8gd-rev-2-0%3Fsrsltid%3DASuE1wQaVkhwXmd2tRcurhsTvhCegojKkXqOJ-tWNKzcAdVMOLRCkzCoyW0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIsT&amp;usg=AOvVaw0He2rrnsIX5RQgPkDlvBgA</t>
         </is>
       </c>
     </row>

--- a/PesquisarPreço/arquivos/resultados/rtx.xlsx
+++ b/PesquisarPreço/arquivos/resultados/rtx.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/placa-de-video-rtx-3060-m-6gb-gamer-novinha-80265104%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECPgT&amp;usg=AOvVaw2KSJwOTLOs7H6rtW0qfHW0</t>
+          <t>https://www.google.com/url?url=https://www.enjoei.com.br/p/placa-de-video-rtx-3060-m-6gb-gamer-novinha-80265104%3Fg_campaign%3Dgoogle_shopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQgOUECOkT&amp;usg=AOvVaw2ztaw-O-3lesKlbRimmN1w</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -486,13 +486,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12gb-gddr6-91-1550149753/p/1550149753%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1550149753%26idLojista%3D11578%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECPsU&amp;usg=AOvVaw1w-L7LfWYD62jUJnRe0LHb</t>
+          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-msi-geforce-rtx-3060-ventus-2x-12gb-gddr6-91-1550149753/p/1550149753%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1550149753%26idLojista%3D11578%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQgOUECPcU&amp;usg=AOvVaw3p5RWDZy6vkk9OBAdefLw0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -506,13 +506,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-rtx-3060-12gb-gddr6/139005461/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485313%26country%3Dbr%26srsltid%3DASuE1wRA-pKilesP0KOnhHHDqr3UlppmeCZqbRV5_7LrFWsEeSkLpXJZnck&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECO4R&amp;usg=AOvVaw1SQ_pRQ85JkIp23y0NIVIW</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-tuf-rtx-3060-12gb-gddr6/139005461/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485313%26country%3Dbr%26srsltid%3DASuE1wRTk5aAP5ihsC7Lz6ZHXKbNIl5KRP-xyT47nop6XRBhg_tryg0eYlM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECJQS&amp;usg=AOvVaw3PASJp_ljGwO1Vz2pF9i7U</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -526,13 +526,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/470012/placa-de-video-gpu-nv-rtx3060-pny-8gb-g6-dual-fan-128b-verto-pny-vcg30608dfbpb1-%3Fsrsltid%3DASuE1wQ3jHX5y86ilnhy-QwyrRk2_IBjGhTC4iRIcXOL6I0198utJgX8Nq8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIoQ&amp;usg=AOvVaw0WrBW0E4clqRBzhgE8M7u4</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/470012/placa-de-video-gpu-nv-rtx3060-pny-8gb-g6-dual-fan-128b-verto-pny-vcg30608dfbpb1-%3Fsrsltid%3DASuE1wRidqQeQTOxWQ-EHqA-FUE9kskBYD18eQphA54bBZrLFF1SBI5Dtlg&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECOgP&amp;usg=AOvVaw3ijV69HeNOJ6cS2_df3wpC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,13 +546,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-oc-12gb-gddr6-192-bit-n30602-12d6x-11902120h%3Fsrsltid%3DASuE1wQ09vE8sMUJKzwM1BblnHvjjLNnRNBUaVVa9mAhJ4EKQICpPNS91BA&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKkU&amp;usg=AOvVaw1bLoKh5kYR8GIfKN5pQwBe</t>
+          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-oc-12gb-gddr6-192-bit-n30602-12d6x-11902120h%3Fsrsltid%3DASuE1wQsJs6Pml2Vq6FATaDAA48h2YDFTuvICJyRJH8O9z0NTyFOQ9IKTEk&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECNoT&amp;usg=AOvVaw1ANn8PR41rUPeoTIM6wD76</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005300623666.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECJAS&amp;usg=AOvVaw3jtuuhPjUGPBNHurDtuEZL</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005300623666.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQgOUECMcS&amp;usg=AOvVaw3HL0CVElguq-J4Bzgr9VK1</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.hdstore.com.br/processador-grafico-gainward-geforce-rtx-3060-ghost-gd6-12gb-gddr6-192bits-ne63060019k9-190au%3Fsrsltid%3DASuE1wS4RoIU0BRfttUCRjb4azbFjSWzzsi5jy-HhOG2ADvBTnKmQEQhm3o&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKQP&amp;usg=AOvVaw2pO6QlhG_CQE7icDHoI_Bc</t>
+          <t>https://www.google.com/url?url=https://www.hdstore.com.br/processador-grafico-gainward-geforce-rtx-3060-ghost-gd6-12gb-gddr6-192bits-ne63060019k9-190au%3Fsrsltid%3DASuE1wSGueCBN5YUmT_04tYVarIL9iI0-gbHvQ7yUXKotfeDXSl-j_VpoSw&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECJQP&amp;usg=AOvVaw1KWWwZ6blBosEBsjVwug6_</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24508/placa-de-video-superframe-nvidia-geforce-rtx-3060-12gb-gddr6-dlss-ray-tracing-rtx306012gd6p2ip3%3Fsrsltid%3DASuE1wQKgeIZ4LKlgL-oLFiW0uRAN5Ur3UlgTTRI-YH7OBJTFSYXQNPCoyc&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNYP&amp;usg=AOvVaw0M3zPm5eNxDgiijIc6n91n</t>
+          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24508/placa-de-video-superframe-nvidia-geforce-rtx-3060-12gb-gddr6-dlss-ray-tracing-rtx306012gd6p2ip3%3Fsrsltid%3DASuE1wRj8N-MqylABSVGHznTAbl75ss3TqxnGDmivjlVeelaEb21h9k4ac0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECMYP&amp;usg=AOvVaw3FQVZY-yg-2cioT3zJBR0z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>placa de video inno3d geforce rtx 3060 twin x2 oc, 8gb, gddr6, 128-bit, n30602 ...</t>
+          <t>placa de vídeo rtx 3060 8gb ddr6 gigabyte - gaming</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24561/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-8gb-gddr6-dlss-ray-tracing-n30602-08d6x-11902130%3Fsrsltid%3DASuE1wSq43o1vLnJvRv8adGz5_nuwfUaCzKrjUypz7nyclta00JXnUgcKu8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIYR&amp;usg=AOvVaw1IPqCPR81LIZrzbymZ5984</t>
+          <t>https://www.google.com/url?url=https://www.brasilgamescuritiba.com.br/produto/placa-de-video-rtx-3060-8gb-ddr6-gigabyte-gaming%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECOYS&amp;usg=AOvVaw0AVXx9MT8wLY7S77_8RPG8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 8gb ddr6 gigabyte - gaming</t>
+          <t>placa de video inno3d geforce rtx 3060 twin x2 oc, 8gb, gddr6, 128-bit, n30602 ...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.brasilgamescuritiba.com.br/produto/placa-de-video-rtx-3060-8gb-ddr6-gigabyte-gaming%3Futm_source%3DSite%26utm_medium%3DGoogleMerchant%26utm_campaign%3DGoogleMerchant&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECPkS&amp;usg=AOvVaw2CxlknNuS7DJFCqAhU2Tf8</t>
+          <t>https://www.google.com/url?url=https://www.terabyteshop.com.br/produto/24561/placa-de-video-inno3d-geforce-rtx-3060-twin-x2-8gb-gddr6-dlss-ray-tracing-n30602-08d6x-11902130%3Fsrsltid%3DASuE1wQas_PkW13aNoQUcCvL-xvAc-_hWJk_L6-dzO_2sVv9eccb9cRRWyk&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECPYQ&amp;usg=AOvVaw0TQ2JOIfD_X7lIBW0jLu4Q</t>
         </is>
       </c>
     </row>
@@ -686,13 +686,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004131910302.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECMgO&amp;usg=AOvVaw2w6lAzdGF4MAWrEg4Yu8in</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004131910302.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECLgO&amp;usg=AOvVaw3w1ahkAC7t4g47ZuWt0Asi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -706,17 +706,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004656933257.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECKkV&amp;usg=AOvVaw1VMzCTuhlMSG7Zd-RzRTIQ</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005004656933257.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQgOUECOcU&amp;usg=AOvVaw0mXZYabAowEsOqb1vQvWZZ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss</t>
+          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -726,17 +726,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-oc-edition-asus-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g/p/fdgjh9e0de/in/note/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECJIP&amp;usg=AOvVaw2_7k53zmuKj-RKQyqdVIfv</t>
+          <t>https://www.buscape.com.br/lead?oid=1005057132&amp;channel=86&amp;index=2&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g</t>
+          <t>placa de vídeo rtx 3060 oc edition asus dual geforce, 8 gb gddr6, dlss</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1005057132&amp;channel=86&amp;index=2&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-oc-edition-asus-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g/p/fdgjh9e0de/in/note/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECIIP&amp;usg=AOvVaw0OUwIXikb2wRqZ3NjGvPxV</t>
         </is>
       </c>
     </row>
@@ -766,13 +766,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.alligatorshop.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-lhr-gddr6-dlss-ray-tracing-gv-n3060vision-oc-12gd%3Fsrsltid%3DASuE1wT_3rVRK_vH2prOH6DpgL7daOe5c7svn6uc95xpTkplPilzvKaASJ8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIEP&amp;usg=AOvVaw1SMa9SAjK0KkJoRsbbvYE3</t>
+          <t>https://www.google.com/url?url=https://www.alligatorshop.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-lhr-gddr6-dlss-ray-tracing-gv-n3060vision-oc-12gd%3Fsrsltid%3DASuE1wS3xmecWIZKdOWT8H5jYVlcblBWZIa3--gqCBrcFLbB-XOaLn0HqoU&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECPEO&amp;usg=AOvVaw0JYWkS2Rq5PEUoUwmOzmEk</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.itxgamer.com.br/placa-de-video-msi-geforce-rtx-3060-ti-ventus-x2-oc-8gb-gddr6x-256-bit-dlss-ray-tracing-912-v505-084&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECPgQ&amp;usg=AOvVaw16i5rcLeC47IR66ltubXLH</t>
+          <t>https://www.google.com/url?url=https://www.itxgamer.com.br/placa-de-video-msi-geforce-rtx-3060-ti-ventus-x2-oc-8gb-gddr6x-256-bit-dlss-ray-tracing-912-v505-084&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECNQQ&amp;usg=AOvVaw3VWbYBEsLYp_2Mn40YZqVa</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/PROCESSADOR-GRAFICO-MSI-GEFORCE912-V397-484-VENTUS/dp/B08WHJFYM8%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA2KZSP8E0ZF21S&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLcN&amp;usg=AOvVaw0gBP89ooDBvLVw8WAt_jM2</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/PROCESSADOR-GRAFICO-MSI-GEFORCE912-V397-484-VENTUS/dp/B08WHJFYM8%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA2KZSP8E0ZF21S&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECKcN&amp;usg=AOvVaw1wlOdjR5AXHiNH18tEKZZo</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>placa de vídeo geforce rtx 3060 v2 dual 12gb gddr6 asus</t>
+          <t>placa de vídeo rtx 3060 asus dual o12g v2 nvidia geforce, 12gb gddr6, lhr, dlss, ray tracing - dual-rtx3060-o12g-v2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-asus-dual-o12g-v2-nvidia-geforce-12gb-gddr6-lhr-dlss-ray-tracing-dual-rtx3060-o12g-v2/p/gbhddje5e2/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECO0N&amp;usg=AOvVaw2WDKQZ835iOlwOw7WP5R8m</t>
+          <t>https://www.buscape.com.br/lead?oid=699424736&amp;channel=86&amp;index=3&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 asus dual o12g v2 nvidia geforce, 12gb gddr6, lhr, dlss, ray tracing - dual-rtx3060-o12g-v2</t>
+          <t>placa de vídeo geforce rtx 3060 v2 dual 12gb gddr6 asus</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -846,13 +846,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=699424736&amp;channel=86&amp;index=3&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-rtx-3060-asus-dual-o12g-v2-nvidia-geforce-12gb-gddr6-lhr-dlss-ray-tracing-dual-rtx3060-o12g-v2/p/gbhddje5e2/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECMoN&amp;usg=AOvVaw3L1Nah6Eqc1P72o8MwZhKM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.supremoinformatica.com.br/placa-de-video-nvidia-geforce-rtx-3060-12gb-ddr6%3Fsrsltid%3DASuE1wTewjd5o3kgp0d2pWEzW4QVlDY_xY3bqLW2ancI6BClHyFoJwOqJaE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECJwQ&amp;usg=AOvVaw0XpdDJ2_qku8LVHQJtraI0</t>
+          <t>https://www.google.com/url?url=https://www.supremoinformatica.com.br/placa-de-video-nvidia-geforce-rtx-3060-12gb-ddr6%3Fsrsltid%3DASuE1wR2KMdZMH7dYBJXO_1TeRiqE8Hf38oGHQGu9QfELKWsJC4zMXZw7sU&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECPoP&amp;usg=AOvVaw220FfNF5jaHvkjGSONkret</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971B5B1L&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIkU&amp;usg=AOvVaw36ULAKeH41pGwUdQFET1io</t>
+          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971B5B1L&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECMcU&amp;usg=AOvVaw1upN6P24PfKnQEgw_yyaWV</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.foxgamerinfo.com.br/product-page/placa-de-v%25C3%25ADdeo-geforce-rtx-3060-12gb-gddr6%3Futm_source%3Dgoogle%2526utm_medium%253Dwix_google_channel%2526utm_campaign%253Dfreelistings%26utm_source%3Dgoogle%26utm_medium%3Dwix_google_feed%26utm_campaign%3Dfreelistings&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECJgU&amp;usg=AOvVaw07rrcYooCpkCa8Bebd7A6_</t>
+          <t>https://www.google.com/url?url=https://www.foxgamerinfo.com.br/product-page/placa-de-v%25C3%25ADdeo-geforce-rtx-3060-12gb-gddr6%3Futm_source%3Dgoogle%2526utm_medium%253Dwix_google_channel%2526utm_campaign%253Dfreelistings%26utm_source%3Dgoogle%26utm_medium%3Dwix_google_feed%26utm_campaign%3Dfreelistings&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQgOUECJYU&amp;usg=AOvVaw1L1gUSIHuDTFku70CuPGzD</t>
         </is>
       </c>
     </row>
@@ -926,13 +926,13 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971BG25M&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNkU&amp;usg=AOvVaw0N_65SUbnbHeSN38vKlRo1</t>
+          <t>https://www.google.com/url?url=https://tiendamia.com/br/producto%3Famz%3DB0971BG25M&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECKYU&amp;usg=AOvVaw0kN3WwgOU31o8M8J1SUVcW</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -946,17 +946,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/gigabyte-placa-grafica-rtx-3060-eagle-oc-12gb-gddr6/138575817/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15015511%26country%3Dbr%26srsltid%3DASuE1wTMR4XiiXwbTZFQxpCYu91SfEj5BUfV93ESuwDHyUMOBRzSBfAYaD4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKcR&amp;usg=AOvVaw2tXPVi2xzOHmks7-aUwB1k</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/gigabyte-placa-grafica-rtx-3060-eagle-oc-12gb-gddr6/138575817/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15015511%26country%3Dbr%26srsltid%3DASuE1wRU-XgXZlwavFTNT-OVPqi0D1hjY7G7QkbGUONkL70e4sZPPaMVdVs&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECJkR&amp;usg=AOvVaw1_7E7SCsVv7nyZClTIE9yX</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>placa de vídeo rtx 3060 white oc edition asus nvidia dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g-white</t>
+          <t>placa de vídeo asus geforce rtx 3060, dual, oc edition, white, 8gb, gddr6, dlss ...</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=1005057131&amp;channel=86&amp;index=11&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/398083/placa-de-video-rtx-3060-white-oc-edition-asus-nvidia-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g-white%3Fsrsltid%3DASuE1wTyr4CK-MjWtLyPmuGVbGOxGfN10KDuWuK_57Aj7mizUrFbxprEaUQ&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECM4R&amp;usg=AOvVaw2P1LIy-V6i0KPJfG_j0yh3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>placa de vídeo pny nvidia geforce rtx 3060 verto dual fan, 8gb, gddr6, dlss, ray ...</t>
+          <t>placa de vídeo rtx 3060 white oc edition asus nvidia dual geforce, 8 gb gddr6, dlss, ray tracing - dual-rtx3060-o8g-white</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -986,17 +986,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/417543/placa-de-video-rtx-3060-verto-pny-nvidia-geforce-8-gb-gddr6-dlss-ray-tracing-vcg30608dfbpb1%3Fsrsltid%3DASuE1wSbVhkjlvVwmCmfnIf6oIXczcv_iAUdc2TJ2gG0mLWQruSq1UMZamM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOcP&amp;usg=AOvVaw2F5juCJZOuff3VaYDqdKgn</t>
+          <t>https://www.buscape.com.br/lead?oid=1005057131&amp;channel=86&amp;index=11&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>placa de vídeo asus geforce rtx 3060, dual, oc edition, white, 8gb, gddr6, dlss ...</t>
+          <t>placa de vídeo pny nvidia geforce rtx 3060 verto dual fan, 8gb, gddr6, dlss, ray ...</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/398083/placa-de-video-rtx-3060-white-oc-edition-asus-nvidia-dual-geforce-8-gb-gddr6-dlss-ray-tracing-dual-rtx3060-o8g-white%3Fsrsltid%3DASuE1wSMDlDK4U4AnK6M4IbJnPEoptwg2iH4Gyz4kw-w44lxkOK4s8dNuMw&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNYS&amp;usg=AOvVaw3h5OrN1pK0BcGtO0Buh4-7</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/417543/placa-de-video-rtx-3060-verto-pny-nvidia-geforce-8-gb-gddr6-dlss-ray-tracing-vcg30608dfbpb1%3Fsrsltid%3DASuE1wRR_9LjbVUaTpTasjlkzhPmDtI9YTk2h95bfCozmauFgvtGWmgbYsM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECNcP&amp;usg=AOvVaw1eNFawQOgZvJyHKFEDwMAK</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-pny-nvidia-verto-rtx-3060-12gb-gddr6-192-bits/p/MLB20555255%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKUO&amp;usg=AOvVaw3KZaLJ6zdnSmGZ_mDYDyug</t>
+          <t>https://www.google.com/url?url=https://www.mercadolivre.com.br/placa-de-video-pny-nvidia-verto-rtx-3060-12gb-gddr6-192-bits/p/MLB20555255%3Fmatt_tool%3D18956390%26utm_source%3Dgoogle_shopping%26utm_medium%3Dorganic%26from%3Dgshop&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECJUO&amp;usg=AOvVaw0MC7l2BBcK03AMMZWxKI_i</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/167781/placa-de-video-gainward-nvidia-geforce-rtx-3060-ghost-oc-12gb-gddr6-192-bits-ne63060t19k9-190au%3Fsrsltid%3DASuE1wTXhQVv9Z4QCPK-yyQwbW8-Fu2pTvY9p8yBnuSZtWmuKifXe1eLEBY&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECNIQ&amp;usg=AOvVaw0tjNwHeyAO7GPjYTnC_1u5</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/167781/placa-de-video-gainward-nvidia-geforce-rtx-3060-ghost-oc-12gb-gddr6-192-bits-ne63060t19k9-190au%3Fsrsltid%3DASuE1wSVLtrT5vi8QF5RYmnFDPPuL4XBPwu54EbrfrviJgkj7E7YSS4JJTw&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECMIQ&amp;usg=AOvVaw3vfaCzgP3UwPgXa-5JkiIE</t>
         </is>
       </c>
     </row>
@@ -1066,33 +1066,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.compulink.com.br/informatica/placa-de-video-12gb-rtx3060-ddr6-192bit-hdmi3xdisplayport-rtx-3060-pegasus-gainward%3Fparceiro%3D2506%26srsltid%3DASuE1wQLGXll5O0lbDh5FdAPmnG7BbcHNvkQa6jkJaF8hW_Rz4n_3oM4sTE&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECL4Q&amp;usg=AOvVaw36FaI8HVK-u_3e8ZJvxHxW</t>
+          <t>https://www.google.com/url?url=https://www.compulink.com.br/informatica/placa-de-video-12gb-rtx3060-ddr6-192bit-hdmi3xdisplayport-rtx-3060-pegasus-gainward%3Fparceiro%3D2506%26srsltid%3DASuE1wRNibL1f0KvRFlMaKD2sdeokEy_J7ozJbHE6uwyYJTSzLXtSyX_T1g&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECK4Q&amp;usg=AOvVaw1zwMwyDLMJ-81932Kpb30n</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>placa de video pny geforce rtx 3060 ti verto dual fan, 8gb, gddr6x, 256-bit ...</t>
+          <t>placa de video rtx 3060 ti dual fan pny nvidia geforce, 8 gb gddr6, lhr, dlss, ray tracing - vcg3060t8ldfbpb1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R$ 2.259,00</t>
+          <t>R$ 2.259,99</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-pny-geforce-rtx-3060-ti-verto-dual-fan-8gb-gddr6x-256-bit-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wRLn_-OcDOSxxFday-SLFI8sNu-cJchQdg_QVbF8idZVncPjqt1L6Q&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOgS&amp;usg=AOvVaw0Y5GSEsoPSXSCif97jevie</t>
+          <t>https://www.buscape.com.br/lead?oid=942617381&amp;channel=86&amp;index=3&amp;searchterm=rtx%203060</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1106,67 +1106,67 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/384635/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3060t8ldfbpb1%3Fsrsltid%3DASuE1wRhWXQagMDmywhG4x8O9kJB0PB3_EC9iwNwkOKzumNbN8jvVQnT2jk&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOYQ&amp;usg=AOvVaw2ToEaYFHPPFmm1dLNrzAAK</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/384635/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3060t8ldfbpb1%3Fsrsltid%3DASuE1wRVJc5ic6lqybC2BbSRAlZKEwnilTiDAWFFJX8h9VytMlRekqFEfrU&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECOcQ&amp;usg=AOvVaw1GqBwviaXizlFd-UREW07e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>placa de video rtx 3060 ti dual fan pny nvidia geforce, 8 gb gddr6, lhr, dlss, ray tracing - vcg3060t8ldfbpb1</t>
+          <t>asus placa gráfica phoenix rtx 3060 12gb gddr6 preto</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R$ 2.259,99</t>
+          <t>R$ 2.292,49</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.buscape.com.br/lead?oid=942617381&amp;channel=86&amp;index=3&amp;searchterm=rtx%203060</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-phoenix-rtx-3060-12gb-gddr6/139005437/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485289%26country%3Dbr%26srsltid%3DASuE1wR49OvgLXsmMLCvREQZcMxG7Fbahh2wf8NorDGAP19gIzPHJ48cTus&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECIgV&amp;usg=AOvVaw2YAQRWMxapz2RPjQDhSXkt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>asus placa gráfica phoenix rtx 3060 12gb gddr6 preto</t>
+          <t>asus placa gráfica dual rtx 3060 ti 8gb gddr6x prateado</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>R$ 2.292,49</t>
+          <t>R$ 2.296,99</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-phoenix-rtx-3060-12gb-gddr6/139005437/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D16485289%26country%3Dbr%26srsltid%3DASuE1wRyMrtnej6-4q7VJMRds2iTYrI8cRlwgPIwvcJiLKoi6J7dhIOlzYU&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIwV&amp;usg=AOvVaw3gjKQLTPW4oamS1DvRjGgk</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-dual-rtx-3060-ti-8gb-gddr6x/139859563/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D19720319%26country%3Dbr%26srsltid%3DASuE1wRfvPSjSSUO87Jin6O3H8DJMqVTCWkmhtPck_4szLIZTEKI1_YEDgM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECIcU&amp;usg=AOvVaw2cZKr9vlKB_k_qMPbuSgkw</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>asus placa gráfica dual rtx 3060 ti 8gb gddr6x prateado</t>
+          <t>placa de video pny geforce rtx 3060 ti verto dual fan, 8gb, gddr6x, 256-bit ...</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R$ 2.296,99</t>
+          <t>R$ 2.299,99</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/asus-placa-grafica-dual-rtx-3060-ti-8gb-gddr6x/139859563/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D19720319%26country%3Dbr%26srsltid%3DASuE1wQ92RqaFYJU9jJj16lxZ2EtaUikzHP9Bxjw0SHhp-5TV2ZtHsAuS3c&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECOsU&amp;usg=AOvVaw2eu9y_p5QQpDXiS6tZ-qsr</t>
+          <t>https://www.google.com/url?url=https://www.magazineluiza.com.br/placa-de-video-pny-geforce-rtx-3060-ti-verto-pny-nvidia-8-gb-gddr6x-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1/p/gd59g66akh/in/pcvd/%3F%26seller_id%3Dkabum&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECPcS&amp;usg=AOvVaw3HKdCcPU9kBGrC3nnZU4_g</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005266299917.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECN0R&amp;usg=AOvVaw0FCkQCD1GENJ79MRXLloDo</t>
+          <t>https://www.google.com/url?url=https://s.click.aliexpress.com/deep_link.htm%3Faff_short_key%3DUneMJZVf%26dl_target_url%3Dhttps%253A%252F%252Fpt.aliexpress.com%252Fitem%252F1005005266299917.html%253F_randl_currency%253DBRL%2526_randl_shipto%253DBR%2526src%253Dgoogle&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECL0R&amp;usg=AOvVaw0HhYPSP5Bg6dRN90pPBCKi</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.dhcp.com.br/placa-de-video-gigabyte-geforce-rtx-3060-windforce-oc-12g-gv-n3060wf2oc-12gd-12gb-gddr6-192-bits-pci-express-4-0.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECP8N&amp;usg=AOvVaw2bhjz0GR7RslMP8lPWkA_W</t>
+          <t>https://www.google.com/url?url=https://www.dhcp.com.br/placa-de-video-gigabyte-geforce-rtx-3060-windforce-oc-12g-gv-n3060wf2oc-12gd-12gb-gddr6-192-bits-pci-express-4-0.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECO8N&amp;usg=AOvVaw0J5re7VlHguqdMlEy5C-iq</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/180539/placa-de-video-rtx-3060-gaming-oc-gigabyte-geforce-12-gb-gddr6-lhr-ray-tracing-gv-n3060gaming-oc-12gd-rev-2-0-%3Fsrsltid%3DASuE1wTbkUgEDN9z2w59yLzPo_QNaho5hQyTgwAi-dJu4O1HNFtO_EAPDP4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECJMO&amp;usg=AOvVaw0QLdOTOeYLbvG9-M_Pe3ud</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/180539/placa-de-video-rtx-3060-gaming-oc-gigabyte-geforce-12-gb-gddr6-lhr-ray-tracing-gv-n3060gaming-oc-12gd-rev-2-0-%3Fsrsltid%3DASuE1wRjcVaoQI615ovrUyzLCocrPkv7S88bdWYky14NeQjF9YfuzhBu3YU&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECIMO&amp;usg=AOvVaw3oxru9K55dU1wXZFRBmKa-</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.loja.thinforma.com.br/produto/placa-de-video-rtx-3060-8gb-pegasus-gd6-128bits-gainward-ne63060019p1-190ae.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLkR&amp;usg=AOvVaw0L8BlGgSAK-FWsSiO8-nOT</t>
+          <t>https://www.google.com/url?url=https://www.loja.thinforma.com.br/produto/placa-de-video-rtx-3060-8gb-pegasus-gd6-128bits-gainward-ne63060019p1-190ae.html&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECIcR&amp;usg=AOvVaw3PS5YI0H9T6IkAa17-4cid</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-igame-rtx-3060-ultra-w-oc-8gb-v-colorful-1555757317/p/1555757317%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1555757317%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLYP&amp;usg=AOvVaw13yaPZ1gukIxgKO0fRHboC</t>
+          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-igame-rtx-3060-ultra-w-oc-8gb-v-colorful-1555757317/p/1555757317%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1555757317%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECKYP&amp;usg=AOvVaw3Cn2JSJ5aKk5tNftx4kOTc</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/msi-placa-grafica-nvidia-geforce-rtx-3060-ventus-3x-oc-12gb-gddr6/138781717/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15853456%26country%3Dbr%26srsltid%3DASuE1wR7Et_bkclrLyvHan8mz5nuodLM7C17LwSPyivTZi0cea3KmipXtrM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECMgP&amp;usg=AOvVaw1u44R5vXjPEFPJq2gaGYCe</t>
+          <t>https://www.google.com/url?url=https://www.tradeinn.com/techinn/pt/msi-placa-grafica-nvidia-geforce-rtx-3060-ventus-3x-oc-12gb-gddr6/138781717/p%3Futm_source%3Dgoogle_products%26utm_medium%3Dmerchant%26id_producte%3D15853456%26country%3Dbr%26srsltid%3DASuE1wQhwQNFN6b4FT7QES-6Ziptl7hXjthWPpZ7B8DwIvG2knTdqYHsoOo&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECLgP&amp;usg=AOvVaw3wSQkv5MHPRfmHlA68MXy7</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1366,67 +1366,67 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.startecinfo.com.br/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wQaqJpUehYnztZl-m62t1AmXwEGjIkNE6biqHIG5srVyioyAebQnx0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLUS&amp;usg=AOvVaw2s_wiv9tAmkVhjsCota4eQ</t>
+          <t>https://www.google.com/url?url=https://www.startecinfo.com.br/placa-de-video-rtx-3060-ti-dual-fan-pny-nvidia-geforce-8-gb-gddr6-lhr-dlss-ray-tracing-vcg3061t8ldfbpb1%3Fsrsltid%3DASuE1wSlzxXu_xZrsSRO8mctSQD_-RDh_iePEqlzwRZzeQEqDkbNS8SNH_w&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECN8R&amp;usg=AOvVaw3hAISj5ZCEDSyQ6lb3tl3X</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>placa de video gainward rtx 3060 ghost gd6 12gb gddr6 192bits</t>
+          <t>placa de vídeo gainward geforce rtx 3060 ti ghost 8gb gddr6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>R$ 2.392,50</t>
+          <t>R$ 2.393,99</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://tecnogamers.com.br/produtos/placa-de-video-gainward-rtx-3060-ghost-gd6-12gb-gddr6-192bits/%3Fsrsltid%3DASuE1wTRb7bdEvN5vZI7WJjTDpxht_ZsjHFppK_Q5wlS5TvA4grZl88GLFI&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQgOUECJoV&amp;usg=AOvVaw0mObuAR2yZZu78s1a1lvqf</t>
+          <t>https://www.google.com/url?url=https://www.novaliderinformatica.com.br/produto/placa-de-video-gainward-nvidia-geforce-rtx-3060-ti-ghost-8gb-gddr6-ne6306t019p2-190ab&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECIkT&amp;usg=AOvVaw22B8Dclz93LHNNwKuq-Plo</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>placa de vídeo gainward geforce rtx 3060 ti ghost 8gb gddr6</t>
+          <t>placa de vídeo gigabyte geforce rtx 3060 vision oc 12gb</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>R$ 2.393,99</t>
+          <t>R$ 2.399,00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.novaliderinformatica.com.br/produto/placa-de-video-gainward-nvidia-geforce-rtx-3060-ti-ghost-8gb-gddr6-ne6306t019p2-190ab&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKkT&amp;usg=AOvVaw1pspDJ-nORlyfJcleVu8KW</t>
+          <t>https://www.google.com/url?url=https://www.eliteplayer.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-12gb-gddr6-rgb-fusion-ray-tracing-metal-back-plate-gv-n3060%3Fsrsltid%3DASuE1wQ1IyRq1FQ8rCbtRZsEVm_DwofU6DGbax6ei9rVaRAMUN0npMrgvok&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECKsT&amp;usg=AOvVaw2WnuFyK7wnppNDOPeJoptM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>placa de vídeo gigabyte geforce rtx 3060 vision oc 12gb</t>
+          <t>placa de vídeo nvidia geforce rtx 3060ti ghost gainward 8gb gddr6 256bits ...</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>R$ 2.399,00</t>
+          <t>R$ 2.399,90</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.eliteplayer.com.br/placa-de-video-gigabyte-geforce-rtx-3060-vision-oc-12g-12gb-gddr6-rgb-fusion-ray-tracing-metal-back-plate-gv-n3060%3Fsrsltid%3DASuE1wQnf1XXuBZOcIf2q6Fi6jWoVl4g-K5CD5IUY5kTbKRdP1JLn2m-ar4&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECLsT&amp;usg=AOvVaw0a8iPavWqIe7SsBAvc61q0</t>
+          <t>https://www.google.com/url?url=https://www.casasbahia.com.br/placa-de-video-nvidia-geforce-rtx-3060ti-ghost-gainward-8gb-gddr6-256bits-ne6306t019p2-190ab-1545508151/p/1545508151%3Futm_medium%3DCpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1545508151%26idLojista%3D207611%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQgOUECJcV&amp;usg=AOvVaw0hGOm4YM65yevF7sxNnqKV</t>
         </is>
       </c>
     </row>
@@ -1446,13 +1446,13 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-colorful-igame-geforce-rtx-3060-nb-duo-lhr-v-12gb-gddr6-192bit-1535388927/p/1535388927%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1535388927%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECO0O&amp;usg=AOvVaw0ZLMwt8BjILqXUDMY-tHfr</t>
+          <t>https://www.google.com/url?url=https://www.pontofrio.com.br/placa-de-video-colorful-igame-geforce-rtx-3060-nb-duo-lhr-v-12gb-gddr6-192bit-1535388927/p/1535388927%3Futm_medium%3Dcpc%26utm_source%3Dgoogle_freelisting%26IdSku%3D1535388927%26idLojista%3D22088%26tipoLojista%3D3P&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECN0O&amp;usg=AOvVaw1uQ5DhuTpuGA8iR7zk1vs-</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECPgP&amp;usg=AOvVaw384BJ3QbhnjQH0wSNR1wuJ</t>
+          <t>https://www.google.com/url?url=https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ%3Fsource%3Dps-sl-shoppingads-lpcontext%26ref_%3Dfplfs%26psc%3D1%26smid%3DA1ZZFT5FULY4LN&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECIwQ&amp;usg=AOvVaw2FT5RcE0kYZxEyUN_Rdu8V</t>
         </is>
       </c>
     </row>
@@ -1486,17 +1486,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.2eletro.com.br/placa-de-video-pcwinmax-nvidia-geforce-rtx-3060ti-8gb-256bits-gddr6-directx-12/p%3Fidsku%3D3526%26utm_source%3Dgoogleshopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECKwQ&amp;usg=AOvVaw2e5JCCwjyFa1xZu0IcjffT</t>
+          <t>https://www.google.com/url?url=https://www.2eletro.com.br/placa-de-video-pcwinmax-nvidia-geforce-rtx-3060ti-8gb-256bits-gddr6-directx-12/p%3Fidsku%3D3526%26utm_source%3Dgoogleshopping&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECJwQ&amp;usg=AOvVaw0NriljdjX9s-Ce27cXaj_H</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>placa de vídeo nvidia msi geforce rtx 3060 ventus 3x 12g oc</t>
+          <t>gigabyte geforce rtx 3060 ti eagle oc 8g (rev. 2.0) nvidia 8 gb gddr6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/275252/placa-de-video-rtx-3060-3x-12g-oc-msi-nvidia-geforce-ventus-12gb-gddr6-dlss-ray-tracing-3060-ventus-3x-12g-oc%3Fsrsltid%3DASuE1wRYfBnVH7BkGVojedj0Q8kTAzt59b1byIUqopEU0_h5Z4PLvdaYttM&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIAS&amp;usg=AOvVaw07jtZ2Ynse61_ea2Ehp04H</t>
+          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-ti-eagle-oc-lhr-8gb-gddr6-256-bit-gv-n306teagle-oc-8gd-rev-2-0%3Fsrsltid%3DASuE1wQhk7CdybNFdrcj4gQ83LavmMz7p3p15TmuMf6XeQGPV-HmV7_rItY&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECLcS&amp;usg=AOvVaw0HI3frC8jm0hB_dvpz4hiZ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>gigabyte geforce rtx 3060 ti eagle oc 8g (rev. 2.0) nvidia 8 gb gddr6</t>
+          <t>placa de vídeo nvidia msi geforce rtx 3060 ventus 3x 12g oc</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.google.com/url?url=https://www.pichau.com.br/placa-de-video-gigabyte-geforce-rtx-3060-ti-eagle-oc-lhr-8gb-gddr6-256-bit-gv-n306teagle-oc-8gd-rev-2-0%3Fsrsltid%3DASuE1wQaVkhwXmd2tRcurhsTvhCegojKkXqOJ-tWNKzcAdVMOLRCkzCoyW0&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwieurvhgJeAAxWdrZUCHXaLBwkQguUECIsT&amp;usg=AOvVaw0He2rrnsIX5RQgPkDlvBgA</t>
+          <t>https://www.google.com/url?url=https://www.kabum.com.br/produto/275252/placa-de-video-rtx-3060-3x-12g-oc-msi-nvidia-geforce-ventus-12gb-gddr6-dlss-ray-tracing-3060-ventus-3x-12g-oc%3Fsrsltid%3DASuE1wRqp_jBg_70cNmjfEnK-gxCaUDl28oEBkYD4H6R92-B776h6JF6P_8&amp;rct=j&amp;q=&amp;esrc=s&amp;sa=U&amp;ved=0ahUKEwjF4MzZi5eAAxUpIbkGHWqHAkcQguUECKYS&amp;usg=AOvVaw3VunQ2WgnRteluT8QNoaV8</t>
         </is>
       </c>
     </row>
